--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>PNW</t>
   </si>
@@ -23,26 +24,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,35 +54,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -373,12 +361,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -386,5846 +380,5846 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>213024.55</v>
+      <c r="B2" t="n">
+        <v>201079.04</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>208020.04</v>
+      <c r="B3" t="n">
+        <v>182052.68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>211193.32</v>
+      <c r="B4" t="n">
+        <v>196967.54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>213032.72</v>
+      <c r="B5" t="n">
+        <v>213540.3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>215652.82</v>
+      <c r="B6" t="n">
+        <v>237518</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>214727.74</v>
+      <c r="B7" t="n">
+        <v>238960.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>212537.14</v>
+      <c r="B8" t="n">
+        <v>242902.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>217776.94</v>
+      <c r="B9" t="n">
+        <v>247649.3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>217643.74</v>
+      <c r="B10" t="n">
+        <v>246509.3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>220184.72</v>
+      <c r="B11" t="n">
+        <v>243965.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>219173.82</v>
+      <c r="B12" t="n">
+        <v>237391.9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>214957.71</v>
+      <c r="B13" t="n">
+        <v>226396.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>216504.91</v>
+      <c r="B14" t="n">
+        <v>218916.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>214180.81</v>
+      <c r="B15" t="n">
+        <v>214332.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>213252.91</v>
+      <c r="B16" t="n">
+        <v>205728.7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>218530.51</v>
+      <c r="B17" t="n">
+        <v>202296.3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>218578.01</v>
+      <c r="B18" t="n">
+        <v>197478.35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>249753.42</v>
+      <c r="B19" t="n">
+        <v>193981.02</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>248955.62</v>
+      <c r="B20" t="n">
+        <v>192352.69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>252324.12</v>
+      <c r="B21" t="n">
+        <v>192493.54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>252049.42</v>
+      <c r="B22" t="n">
+        <v>192028.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>248065.11</v>
+      <c r="B23" t="n">
+        <v>196589.3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>266275.41</v>
+      <c r="B24" t="n">
+        <v>223294.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>247045.91</v>
+      <c r="B25" t="n">
+        <v>230294.4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>249637.11</v>
+      <c r="B26" t="n">
+        <v>245972.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>246159.31</v>
+      <c r="B27" t="n">
+        <v>260903</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>244484.21</v>
+      <c r="B28" t="n">
+        <v>261494.8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>243899.01</v>
+      <c r="B29" t="n">
+        <v>257356.1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>243337.79</v>
+      <c r="B30" t="n">
+        <v>252733.7</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>246246.87</v>
+      <c r="B31" t="n">
+        <v>250679</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>243857.07</v>
+      <c r="B32" t="n">
+        <v>245178.1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>234294.47</v>
+      <c r="B33" t="n">
+        <v>234606.2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>213588.27</v>
+      <c r="B34" t="n">
+        <v>224053.1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>208343.47</v>
+      <c r="B35" t="n">
+        <v>218718.6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>201408.97</v>
+      <c r="B36" t="n">
+        <v>219266.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>201470.37</v>
+      <c r="B37" t="n">
+        <v>206621.5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>201583.85</v>
+      <c r="B38" t="n">
+        <v>199384.6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>204042.95</v>
+      <c r="B39" t="n">
+        <v>201143.3</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>209152.25</v>
+      <c r="B40" t="n">
+        <v>201481.92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>214264.25</v>
+      <c r="B41" t="n">
+        <v>193982.55</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>220209.05</v>
+      <c r="B42" t="n">
+        <v>204061.83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>228925.45</v>
+      <c r="B43" t="n">
+        <v>210188.77</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>238873.85</v>
+      <c r="B44" t="n">
+        <v>211316.88</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>235028.7</v>
+      <c r="B45" t="n">
+        <v>215599.71</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>233199.1</v>
+      <c r="B46" t="n">
+        <v>228854.83</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>238466.8</v>
+      <c r="B47" t="n">
+        <v>231271.4</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>236344.3</v>
+      <c r="B48" t="n">
+        <v>230192.31</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>233145.8</v>
+      <c r="B49" t="n">
+        <v>218925.9</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>225827.1</v>
+      <c r="B50" t="n">
+        <v>225005.98</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>224649.2</v>
+      <c r="B51" t="n">
+        <v>216192.56</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>230534.5</v>
+      <c r="B52" t="n">
+        <v>215526.25</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>226542.9</v>
+      <c r="B53" t="n">
+        <v>215741.55</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>228772.82</v>
+      <c r="B54" t="n">
+        <v>219810.86</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>228903.95</v>
+      <c r="B55" t="n">
+        <v>218670.05</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>228694.65</v>
+      <c r="B56" t="n">
+        <v>217196.19</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>231365.15</v>
+      <c r="B57" t="n">
+        <v>211730.83</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>232550.92</v>
+      <c r="B58" t="n">
+        <v>210927.48</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>228105.62</v>
+      <c r="B59" t="n">
+        <v>205907.06</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>226037.65</v>
+      <c r="B60" t="n">
+        <v>200416.4</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>246811.95</v>
+      <c r="B61" t="n">
+        <v>211962.08</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>192375.82</v>
+      <c r="B62" t="n">
+        <v>202370.43</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>191946.62</v>
+      <c r="B63" t="n">
+        <v>207890.23</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>192474.26</v>
+      <c r="B64" t="n">
+        <v>229004.58</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>192403.77</v>
+      <c r="B65" t="n">
+        <v>235076.7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>192430.22</v>
+      <c r="B66" t="n">
+        <v>228845.22</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>194022.57</v>
+      <c r="B67" t="n">
+        <v>227729.46</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>191287.97</v>
+      <c r="B68" t="n">
+        <v>227104.9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>186874.52</v>
+      <c r="B69" t="n">
+        <v>228902.96</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>186865.32</v>
+      <c r="B70" t="n">
+        <v>232922.34</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>188899.02</v>
+      <c r="B71" t="n">
+        <v>244053.82</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>192715.97</v>
+      <c r="B72" t="n">
+        <v>249816.6</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>195860.72</v>
+      <c r="B73" t="n">
+        <v>256706</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>193066.92</v>
+      <c r="B74" t="n">
+        <v>265144.4</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>196685.57</v>
+      <c r="B75" t="n">
+        <v>269696</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>200753.08</v>
+      <c r="B76" t="n">
+        <v>270300.6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>201838.88</v>
+      <c r="B77" t="n">
+        <v>268258.4</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>210111.16</v>
+      <c r="B78" t="n">
+        <v>266164.8</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>215098.39</v>
+      <c r="B79" t="n">
+        <v>260790.5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>219685.46</v>
+      <c r="B80" t="n">
+        <v>262111.7</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>227424.91</v>
+      <c r="B81" t="n">
+        <v>272683.6</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>225373.11</v>
+      <c r="B82" t="n">
+        <v>288170.8</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>221139.87</v>
+      <c r="B83" t="n">
+        <v>287695.5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>216632.34</v>
+      <c r="B84" t="n">
+        <v>282713</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>198334.42</v>
+      <c r="B85" t="n">
+        <v>257470</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>239538.39</v>
+      <c r="B86" t="n">
+        <v>262476.9</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>223837.38</v>
+      <c r="B87" t="n">
+        <v>255257.7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>222513.19</v>
+      <c r="B88" t="n">
+        <v>249417</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>212299.94</v>
+      <c r="B89" t="n">
+        <v>241104.1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>219203.69</v>
+      <c r="B90" t="n">
+        <v>245570.6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>217311.91</v>
+      <c r="B91" t="n">
+        <v>256740.3</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>212666.74</v>
+      <c r="B92" t="n">
+        <v>238628.6</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>227572.5</v>
+      <c r="B93" t="n">
+        <v>211685.1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>251069.94</v>
+      <c r="B94" t="n">
+        <v>208515.1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>263950.53</v>
+      <c r="B95" t="n">
+        <v>210686.2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>258328.99</v>
+      <c r="B96" t="n">
+        <v>214187.2</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>260361.84</v>
+      <c r="B97" t="n">
+        <v>221744</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>254914.17</v>
+      <c r="B98" t="n">
+        <v>218038.5</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>261649.7</v>
+      <c r="B99" t="n">
+        <v>225473.61</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>284303.6</v>
+      <c r="B100" t="n">
+        <v>233432</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>299066.8</v>
+      <c r="B101" t="n">
+        <v>233064.25</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>326264.9</v>
+      <c r="B102" t="n">
+        <v>229927.36</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>342618.7</v>
+      <c r="B103" t="n">
+        <v>222136.26</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>358807.9</v>
+      <c r="B104" t="n">
+        <v>220440.22</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>368585.9</v>
+      <c r="B105" t="n">
+        <v>222386.18</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>371827.1</v>
+      <c r="B106" t="n">
+        <v>219165.8</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>355459</v>
+      <c r="B107" t="n">
+        <v>219635.1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108">
-        <v>356219.3</v>
+      <c r="B108" t="n">
+        <v>241708.3</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109">
-        <v>359773.2</v>
+      <c r="B109" t="n">
+        <v>266310.9</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110">
-        <v>364417.8</v>
+      <c r="B110" t="n">
+        <v>272344.2</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>363348.7</v>
+      <c r="B111" t="n">
+        <v>270322.3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>340045.8</v>
+      <c r="B112" t="n">
+        <v>267543</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>321323.7</v>
+      <c r="B113" t="n">
+        <v>265766.4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114">
-        <v>301592.9</v>
+      <c r="B114" t="n">
+        <v>270542.9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115">
-        <v>297089.6</v>
+      <c r="B115" t="n">
+        <v>285181.9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>278727</v>
+      <c r="B116" t="n">
+        <v>258585.1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117">
-        <v>260504.4</v>
+      <c r="B117" t="n">
+        <v>266987.9</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>252826.2</v>
+      <c r="B118" t="n">
+        <v>237288.3</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>265482.7</v>
+      <c r="B119" t="n">
+        <v>238944.6</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120">
-        <v>255991.8</v>
+      <c r="B120" t="n">
+        <v>229054.9</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>273407.8</v>
+      <c r="B121" t="n">
+        <v>223797.8</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122">
-        <v>192583.2</v>
+      <c r="B122" t="n">
+        <v>149710.2</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123">
-        <v>205787.4</v>
+      <c r="B123" t="n">
+        <v>155419.1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124">
-        <v>232802.3</v>
+      <c r="B124" t="n">
+        <v>154540.1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125">
-        <v>243297.3</v>
+      <c r="B125" t="n">
+        <v>147061.3</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126">
-        <v>304583.5</v>
+      <c r="B126" t="n">
+        <v>145828.4</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127">
-        <v>276782.2</v>
+      <c r="B127" t="n">
+        <v>144358</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128">
-        <v>261932.2</v>
+      <c r="B128" t="n">
+        <v>142121.6</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129">
-        <v>227467.3</v>
+      <c r="B129" t="n">
+        <v>141864.3</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130">
-        <v>234752.3</v>
+      <c r="B130" t="n">
+        <v>148972.6</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>228916.6</v>
+      <c r="B131" t="n">
+        <v>155489.8</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132">
-        <v>223389.6</v>
+      <c r="B132" t="n">
+        <v>155485.9</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133">
-        <v>211033.8</v>
+      <c r="B133" t="n">
+        <v>166645.4</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134">
-        <v>201066.8</v>
+      <c r="B134" t="n">
+        <v>177390.8</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135">
-        <v>187438.1</v>
+      <c r="B135" t="n">
+        <v>199286.3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136">
-        <v>186278.5</v>
+      <c r="B136" t="n">
+        <v>214855.1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137">
-        <v>193562.5</v>
+      <c r="B137" t="n">
+        <v>219386.7</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138">
-        <v>219958.1</v>
+      <c r="B138" t="n">
+        <v>213536.3</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139">
-        <v>303799</v>
+      <c r="B139" t="n">
+        <v>207545</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140">
-        <v>389933.5</v>
+      <c r="B140" t="n">
+        <v>208871.6</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141">
-        <v>401900.7</v>
+      <c r="B141" t="n">
+        <v>217766.4</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142">
-        <v>421780.1</v>
+      <c r="B142" t="n">
+        <v>221347.2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143">
-        <v>428593.4</v>
+      <c r="B143" t="n">
+        <v>217884.8</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144">
-        <v>432766.6</v>
+      <c r="B144" t="n">
+        <v>261866.2</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145">
-        <v>432327.8</v>
+      <c r="B145" t="n">
+        <v>279368.7</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146">
-        <v>432380.5</v>
+      <c r="B146" t="n">
+        <v>293666.2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147">
-        <v>434413.8</v>
+      <c r="B147" t="n">
+        <v>283126.3</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148">
-        <v>429738.4</v>
+      <c r="B148" t="n">
+        <v>295875.4</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149">
-        <v>438208.3</v>
+      <c r="B149" t="n">
+        <v>276342.6</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150">
-        <v>439328.1</v>
+      <c r="B150" t="n">
+        <v>286110.3</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151">
-        <v>436785.8</v>
+      <c r="B151" t="n">
+        <v>282623.4</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152">
-        <v>440486.7</v>
+      <c r="B152" t="n">
+        <v>310629.2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153">
-        <v>451231.6</v>
+      <c r="B153" t="n">
+        <v>330511.1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154">
-        <v>454483.1</v>
+      <c r="B154" t="n">
+        <v>329831.3</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155">
-        <v>452212.7</v>
+      <c r="B155" t="n">
+        <v>332872.1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156">
-        <v>450232.5</v>
+      <c r="B156" t="n">
+        <v>334038.9</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157">
-        <v>451719.5</v>
+      <c r="B157" t="n">
+        <v>334650.5</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158">
-        <v>452319.3</v>
+      <c r="B158" t="n">
+        <v>334841.2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159">
-        <v>447807.3</v>
+      <c r="B159" t="n">
+        <v>338218.5</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160">
-        <v>446239.4</v>
+      <c r="B160" t="n">
+        <v>338054.3</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161">
-        <v>445567.7</v>
+      <c r="B161" t="n">
+        <v>341297.1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162">
-        <v>443750.9</v>
+      <c r="B162" t="n">
+        <v>342595.8</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163">
-        <v>437854.8</v>
+      <c r="B163" t="n">
+        <v>343444.9</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164">
-        <v>439565.2</v>
+      <c r="B164" t="n">
+        <v>347105.8</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165">
-        <v>443324.3</v>
+      <c r="B165" t="n">
+        <v>349901.8</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166">
-        <v>441858.9</v>
+      <c r="B166" t="n">
+        <v>351200.3</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167">
-        <v>444148.1</v>
+      <c r="B167" t="n">
+        <v>350178.6</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168">
-        <v>435693.7</v>
+      <c r="B168" t="n">
+        <v>349952.3</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169">
-        <v>430736.5</v>
+      <c r="B169" t="n">
+        <v>347426.1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170">
-        <v>430711.1</v>
+      <c r="B170" t="n">
+        <v>341448.5</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171">
-        <v>432617.8</v>
+      <c r="B171" t="n">
+        <v>339876.5</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172">
-        <v>433347.2</v>
+      <c r="B172" t="n">
+        <v>339928.6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173">
-        <v>430368.7</v>
+      <c r="B173" t="n">
+        <v>342555.6</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174">
-        <v>391411</v>
+      <c r="B174" t="n">
+        <v>340509.1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175">
-        <v>360963.9</v>
+      <c r="B175" t="n">
+        <v>343566.2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176">
-        <v>348188.8</v>
+      <c r="B176" t="n">
+        <v>352229.6</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177">
-        <v>332629.3</v>
+      <c r="B177" t="n">
+        <v>348370.7</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178">
-        <v>316600</v>
+      <c r="B178" t="n">
+        <v>353532.7</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179">
-        <v>301626.1</v>
+      <c r="B179" t="n">
+        <v>348519.3</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180">
-        <v>308998.2</v>
+      <c r="B180" t="n">
+        <v>356202.9</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181">
-        <v>296650.9</v>
+      <c r="B181" t="n">
+        <v>349268.6</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182">
-        <v>309963.7</v>
+      <c r="B182" t="n">
+        <v>356144.6</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183">
-        <v>311063.8</v>
+      <c r="B183" t="n">
+        <v>338830.2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184">
-        <v>352432.6</v>
+      <c r="B184" t="n">
+        <v>341520.5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185">
-        <v>320130.7</v>
+      <c r="B185" t="n">
+        <v>336504.8</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186">
-        <v>300972.4</v>
+      <c r="B186" t="n">
+        <v>332709</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187">
-        <v>274030.2</v>
+      <c r="B187" t="n">
+        <v>332787</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188">
-        <v>223985.5</v>
+      <c r="B188" t="n">
+        <v>332828.7</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189">
-        <v>224088.7</v>
+      <c r="B189" t="n">
+        <v>302864.8</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190">
-        <v>221938.3</v>
+      <c r="B190" t="n">
+        <v>267773.4</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191">
-        <v>216425.1</v>
+      <c r="B191" t="n">
+        <v>251863.7</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192">
-        <v>217546.2</v>
+      <c r="B192" t="n">
+        <v>249808.5</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193">
-        <v>218463.6</v>
+      <c r="B193" t="n">
+        <v>242989.8</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194">
-        <v>217580.3</v>
+      <c r="B194" t="n">
+        <v>238766</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195">
-        <v>205094.1</v>
+      <c r="B195" t="n">
+        <v>236838.6</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196">
-        <v>189280.1</v>
+      <c r="B196" t="n">
+        <v>229228.4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197">
-        <v>188716.8</v>
+      <c r="B197" t="n">
+        <v>222845.7</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198">
-        <v>200538.4</v>
+      <c r="B198" t="n">
+        <v>213653.6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199">
-        <v>197061.7</v>
+      <c r="B199" t="n">
+        <v>212744.6</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200">
-        <v>182689.5</v>
+      <c r="B200" t="n">
+        <v>209271.4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201">
-        <v>176602</v>
+      <c r="B201" t="n">
+        <v>208715.8</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202">
-        <v>177299.2</v>
+      <c r="B202" t="n">
+        <v>195328</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203">
-        <v>178882.8</v>
+      <c r="B203" t="n">
+        <v>178867</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204">
-        <v>176445.4</v>
+      <c r="B204" t="n">
+        <v>178748.4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205">
-        <v>181251.1</v>
+      <c r="B205" t="n">
+        <v>166889</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206">
-        <v>179415.1</v>
+      <c r="B206" t="n">
+        <v>165136.7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207">
-        <v>164527.4</v>
+      <c r="B207" t="n">
+        <v>168424.6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208">
-        <v>168423.9</v>
+      <c r="B208" t="n">
+        <v>165326.6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209">
-        <v>164173.8</v>
+      <c r="B209" t="n">
+        <v>174068</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210">
-        <v>153982</v>
+      <c r="B210" t="n">
+        <v>174351.5</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211">
-        <v>153611.3</v>
+      <c r="B211" t="n">
+        <v>167240.5</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212">
-        <v>141140.1</v>
+      <c r="B212" t="n">
+        <v>163365.7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213">
-        <v>145414.2</v>
+      <c r="B213" t="n">
+        <v>176687.8</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214">
-        <v>153705.7</v>
+      <c r="B214" t="n">
+        <v>163363.9</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215">
-        <v>140978.9</v>
+      <c r="B215" t="n">
+        <v>140740.5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216">
-        <v>134874.71</v>
+      <c r="B216" t="n">
+        <v>149953.7</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217">
-        <v>156884.87</v>
+      <c r="B217" t="n">
+        <v>188745.3</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218">
-        <v>156952.51</v>
+      <c r="B218" t="n">
+        <v>169407.7</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219">
-        <v>151859.14</v>
+      <c r="B219" t="n">
+        <v>163653.8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220">
-        <v>142592.25</v>
+      <c r="B220" t="n">
+        <v>156286.5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221">
-        <v>154238.26</v>
+      <c r="B221" t="n">
+        <v>144069.6</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1">
+      <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222">
-        <v>140945.77</v>
+      <c r="B222" t="n">
+        <v>147312.8</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1">
+      <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223">
-        <v>138314.35</v>
+      <c r="B223" t="n">
+        <v>145383</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1">
+      <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224">
-        <v>141981.63</v>
+      <c r="B224" t="n">
+        <v>143626.2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1">
+      <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225">
-        <v>144344.01</v>
+      <c r="B225" t="n">
+        <v>140116.1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1">
+      <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226">
-        <v>136423.31</v>
+      <c r="B226" t="n">
+        <v>140963.1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1">
+      <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227">
-        <v>141914.97</v>
+      <c r="B227" t="n">
+        <v>137959</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1">
+      <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228">
-        <v>140239.3</v>
+      <c r="B228" t="n">
+        <v>128141.1</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1">
+      <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229">
-        <v>163327.15</v>
+      <c r="B229" t="n">
+        <v>141133.6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1">
+      <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230">
-        <v>159610.15</v>
+      <c r="B230" t="n">
+        <v>137733.1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1">
+      <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231">
-        <v>155009.86</v>
+      <c r="B231" t="n">
+        <v>128880.8</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1">
+      <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232">
-        <v>156748.4</v>
+      <c r="B232" t="n">
+        <v>133075.94</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1">
+      <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233">
-        <v>154094.47</v>
+      <c r="B233" t="n">
+        <v>136841.93</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1">
+      <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234">
-        <v>150560.03</v>
+      <c r="B234" t="n">
+        <v>129977.19</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1">
+      <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235">
-        <v>165641.06</v>
+      <c r="B235" t="n">
+        <v>123357.61</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1">
+      <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236">
-        <v>159935.41</v>
+      <c r="B236" t="n">
+        <v>124566.97</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1">
+      <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237">
-        <v>147695.56</v>
+      <c r="B237" t="n">
+        <v>131053</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1">
+      <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238">
-        <v>155818.18</v>
+      <c r="B238" t="n">
+        <v>124167.99</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1">
+      <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239">
-        <v>155962.15</v>
+      <c r="B239" t="n">
+        <v>123498.27</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1">
+      <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240">
-        <v>145335.67</v>
+      <c r="B240" t="n">
+        <v>132103.4</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1">
+      <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241">
-        <v>148272.58</v>
+      <c r="B241" t="n">
+        <v>130580.25</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1">
+      <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242">
-        <v>143627.12</v>
+      <c r="B242" t="n">
+        <v>128814.27</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1">
+      <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243">
-        <v>148291.07</v>
+      <c r="B243" t="n">
+        <v>125309.65</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1">
+      <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244">
-        <v>180002.98</v>
+      <c r="B244" t="n">
+        <v>149553.65</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1">
+      <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245">
-        <v>112134.35</v>
+      <c r="B245" t="n">
+        <v>111839.09</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1">
+      <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246">
-        <v>104342.83</v>
+      <c r="B246" t="n">
+        <v>108686.75</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1">
+      <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247">
-        <v>107363.16</v>
+      <c r="B247" t="n">
+        <v>100670.24</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1">
+      <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248">
-        <v>106313.5</v>
+      <c r="B248" t="n">
+        <v>101408.44</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1">
+      <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249">
-        <v>109627.57</v>
+      <c r="B249" t="n">
+        <v>99654.09</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1">
+      <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250">
-        <v>117309.1</v>
+      <c r="B250" t="n">
+        <v>107123.61</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251">
-        <v>136664.95</v>
+      <c r="B251" t="n">
+        <v>107870.89</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1">
+      <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252">
-        <v>142592.98</v>
+      <c r="B252" t="n">
+        <v>109305.27</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1">
+      <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253">
-        <v>121496.82</v>
+      <c r="B253" t="n">
+        <v>113881.97</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1">
+      <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254">
-        <v>135532.2</v>
+      <c r="B254" t="n">
+        <v>118467.24</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1">
+      <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255">
-        <v>123297.8</v>
+      <c r="B255" t="n">
+        <v>109512.4</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1">
+      <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256">
-        <v>131180.52</v>
+      <c r="B256" t="n">
+        <v>106668.57</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1">
+      <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257">
-        <v>161305.22</v>
+      <c r="B257" t="n">
+        <v>111093.14</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1">
+      <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258">
-        <v>171329.7</v>
+      <c r="B258" t="n">
+        <v>109083.09</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1">
+      <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259">
-        <v>161488.58</v>
+      <c r="B259" t="n">
+        <v>101409.1</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1">
+      <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260">
-        <v>161364.53</v>
+      <c r="B260" t="n">
+        <v>101026.81</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1">
+      <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261">
-        <v>177890.13</v>
+      <c r="B261" t="n">
+        <v>101615.74</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1">
+      <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262">
-        <v>169349.71</v>
+      <c r="B262" t="n">
+        <v>108608.45</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1">
+      <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263">
-        <v>183173.27</v>
+      <c r="B263" t="n">
+        <v>104025.06</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1">
+      <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264">
-        <v>176476.72</v>
+      <c r="B264" t="n">
+        <v>100463.04</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1">
+      <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265">
-        <v>185943.13</v>
+      <c r="B265" t="n">
+        <v>115455.18</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1">
+      <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266">
-        <v>181297.89</v>
+      <c r="B266" t="n">
+        <v>122744.96</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1">
+      <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267">
-        <v>175136.24</v>
+      <c r="B267" t="n">
+        <v>117617.32</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1">
+      <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268">
-        <v>181508.95</v>
+      <c r="B268" t="n">
+        <v>119527.3</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1">
+      <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269">
-        <v>170450.7</v>
+      <c r="B269" t="n">
+        <v>113468.22</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1">
+      <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270">
-        <v>181224.8</v>
+      <c r="B270" t="n">
+        <v>109706.26</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1">
+      <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271">
-        <v>180386.61</v>
+      <c r="B271" t="n">
+        <v>109720.2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1">
+      <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272">
-        <v>159767.86</v>
+      <c r="B272" t="n">
+        <v>106586.12</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1">
+      <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273">
-        <v>160883.87</v>
+      <c r="B273" t="n">
+        <v>110856.57</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1">
+      <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274">
-        <v>163818.74</v>
+      <c r="B274" t="n">
+        <v>106724.72</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1">
+      <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275">
-        <v>179006.18</v>
+      <c r="B275" t="n">
+        <v>111745.8</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1">
+      <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276">
-        <v>185133.57</v>
+      <c r="B276" t="n">
+        <v>110138.33</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1">
+      <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277">
-        <v>184425.31</v>
+      <c r="B277" t="n">
+        <v>110361.56</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1">
+      <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278">
-        <v>185666.52</v>
+      <c r="B278" t="n">
+        <v>108220.71</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1">
+      <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279">
-        <v>178227.12</v>
+      <c r="B279" t="n">
+        <v>107808.33</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1">
+      <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280">
-        <v>180127.24</v>
+      <c r="B280" t="n">
+        <v>109424.84</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1">
+      <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281">
-        <v>176284.73</v>
+      <c r="B281" t="n">
+        <v>108868.02</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1">
+      <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282">
-        <v>180935.85</v>
+      <c r="B282" t="n">
+        <v>107321.12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1">
+      <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283">
-        <v>179088.37</v>
+      <c r="B283" t="n">
+        <v>110697.35</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1">
+      <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284">
-        <v>175172.43</v>
+      <c r="B284" t="n">
+        <v>114563.45</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1">
+      <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285">
-        <v>180114.63</v>
+      <c r="B285" t="n">
+        <v>115181.63</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1">
+      <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286">
-        <v>183722.09</v>
+      <c r="B286" t="n">
+        <v>138212.98</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1">
+      <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287">
-        <v>176452.87</v>
+      <c r="B287" t="n">
+        <v>131458.92</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1">
+      <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288">
-        <v>182737.29</v>
+      <c r="B288" t="n">
+        <v>132631.9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1">
+      <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289">
-        <v>187312</v>
+      <c r="B289" t="n">
+        <v>132601.42</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1">
+      <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290">
-        <v>207721.2</v>
+      <c r="B290" t="n">
+        <v>135462.16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1">
+      <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291">
-        <v>207564.6</v>
+      <c r="B291" t="n">
+        <v>135630.13</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1">
+      <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292">
-        <v>198918.17</v>
+      <c r="B292" t="n">
+        <v>135132.51</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1">
+      <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293">
-        <v>204527.24</v>
+      <c r="B293" t="n">
+        <v>135703.19</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1">
+      <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294">
-        <v>210283.23</v>
+      <c r="B294" t="n">
+        <v>135323.55</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1">
+      <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295">
-        <v>214732.84</v>
+      <c r="B295" t="n">
+        <v>135898.95</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1">
+      <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296">
-        <v>211711.75</v>
+      <c r="B296" t="n">
+        <v>135585.76</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1">
+      <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297">
-        <v>208463.89</v>
+      <c r="B297" t="n">
+        <v>135354.01</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1">
+      <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298">
-        <v>210178.37</v>
+      <c r="B298" t="n">
+        <v>136966.81</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1">
+      <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299">
-        <v>210847.1</v>
+      <c r="B299" t="n">
+        <v>136671.93</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1">
+      <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300">
-        <v>226601.9</v>
+      <c r="B300" t="n">
+        <v>140460.42</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1">
+      <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301">
-        <v>236140</v>
+      <c r="B301" t="n">
+        <v>145804.14</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1">
+      <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302">
-        <v>249452.2</v>
+      <c r="B302" t="n">
+        <v>144151.51</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1">
+      <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303">
-        <v>252709.4</v>
+      <c r="B303" t="n">
+        <v>139021.16</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1">
+      <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304">
-        <v>243452.64</v>
+      <c r="B304" t="n">
+        <v>139860.02</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1">
+      <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305">
-        <v>216805.46</v>
+      <c r="B305" t="n">
+        <v>142484.78</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1">
+      <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306">
-        <v>216132.79</v>
+      <c r="B306" t="n">
+        <v>135933.96</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1">
+      <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307">
-        <v>222266.7</v>
+      <c r="B307" t="n">
+        <v>131015.61</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1">
+      <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308">
-        <v>247231.5</v>
+      <c r="B308" t="n">
+        <v>138139.04</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1">
+      <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309">
-        <v>251186.2</v>
+      <c r="B309" t="n">
+        <v>147166.17</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1">
+      <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310">
-        <v>260326</v>
+      <c r="B310" t="n">
+        <v>148830.37</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1">
+      <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311">
-        <v>258562.1</v>
+      <c r="B311" t="n">
+        <v>147988.01</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1">
+      <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312">
-        <v>266016.2</v>
+      <c r="B312" t="n">
+        <v>150025.32</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1">
+      <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313">
-        <v>254441.5</v>
+      <c r="B313" t="n">
+        <v>148362.32</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1">
+      <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314">
-        <v>251546.4</v>
+      <c r="B314" t="n">
+        <v>150325.42</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1">
+      <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315">
-        <v>245433.05</v>
+      <c r="B315" t="n">
+        <v>150454.02</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1">
+      <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316">
-        <v>235166.2</v>
+      <c r="B316" t="n">
+        <v>149068.29</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1">
+      <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317">
-        <v>231816.39</v>
+      <c r="B317" t="n">
+        <v>146927.98</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1">
+      <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318">
-        <v>215568.86</v>
+      <c r="B318" t="n">
+        <v>151267.57</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1">
+      <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319">
-        <v>210519.75</v>
+      <c r="B319" t="n">
+        <v>158388.97</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1">
+      <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320">
-        <v>209939.48</v>
+      <c r="B320" t="n">
+        <v>157553.87</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1">
+      <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321">
-        <v>210136.26</v>
+      <c r="B321" t="n">
+        <v>150430.17</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1">
+      <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322">
-        <v>212124.01</v>
+      <c r="B322" t="n">
+        <v>147598.17</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1">
+      <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323">
-        <v>215181.54</v>
+      <c r="B323" t="n">
+        <v>144950.67</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1">
+      <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324">
-        <v>207907.66</v>
+      <c r="B324" t="n">
+        <v>144162.77</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1">
+      <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325">
-        <v>207386.6</v>
+      <c r="B325" t="n">
+        <v>149823.47</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1">
+      <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326">
-        <v>202687.09</v>
+      <c r="B326" t="n">
+        <v>150125.11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1">
+      <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327">
-        <v>192841.72</v>
+      <c r="B327" t="n">
+        <v>146852.01</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1">
+      <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328">
-        <v>189077.15</v>
+      <c r="B328" t="n">
+        <v>148777.86</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1">
+      <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329">
-        <v>185927.91</v>
+      <c r="B329" t="n">
+        <v>148349.36</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1">
+      <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330">
-        <v>182914.05</v>
+      <c r="B330" t="n">
+        <v>145520.66</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1">
+      <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331">
-        <v>190086.01</v>
+      <c r="B331" t="n">
+        <v>145825.76</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1">
+      <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332">
-        <v>179849.89</v>
+      <c r="B332" t="n">
+        <v>146312.66</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1">
+      <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333">
-        <v>180425.89</v>
+      <c r="B333" t="n">
+        <v>144804.66</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1">
+      <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334">
-        <v>178626.74</v>
+      <c r="B334" t="n">
+        <v>150187.62</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1">
+      <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335">
-        <v>180773.95</v>
+      <c r="B335" t="n">
+        <v>148174.71</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1">
+      <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336">
-        <v>180949.62</v>
+      <c r="B336" t="n">
+        <v>149291.9</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1">
+      <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337">
-        <v>202701.42</v>
+      <c r="B337" t="n">
+        <v>158348.64</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1">
+      <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338">
-        <v>218467.54</v>
+      <c r="B338" t="n">
+        <v>152116.61</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1">
+      <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339">
-        <v>216803.04</v>
+      <c r="B339" t="n">
+        <v>151061.51</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1">
+      <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340">
-        <v>208284.18</v>
+      <c r="B340" t="n">
+        <v>143237.51</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1">
+      <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341">
-        <v>215346.55</v>
+      <c r="B341" t="n">
+        <v>148635.6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1">
+      <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342">
-        <v>218858.93</v>
+      <c r="B342" t="n">
+        <v>143510.23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1">
+      <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343">
-        <v>219363.82</v>
+      <c r="B343" t="n">
+        <v>153593.7</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1">
+      <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344">
-        <v>221518.01</v>
+      <c r="B344" t="n">
+        <v>165850.2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1">
+      <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345">
-        <v>219748.34</v>
+      <c r="B345" t="n">
+        <v>169896.31</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1">
+      <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346">
-        <v>211845.31</v>
+      <c r="B346" t="n">
+        <v>172883.53</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1">
+      <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347">
-        <v>206881.51</v>
+      <c r="B347" t="n">
+        <v>173017.84</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1">
+      <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348">
-        <v>210430.62</v>
+      <c r="B348" t="n">
+        <v>169332.04</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1">
+      <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349">
-        <v>207160.89</v>
+      <c r="B349" t="n">
+        <v>170805.24</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1">
+      <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350">
-        <v>217228.47</v>
+      <c r="B350" t="n">
+        <v>174237</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1">
+      <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351">
-        <v>220007.41</v>
+      <c r="B351" t="n">
+        <v>170033.1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1">
+      <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352">
-        <v>220926.78</v>
+      <c r="B352" t="n">
+        <v>161648.7</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1">
+      <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353">
-        <v>229850.95</v>
+      <c r="B353" t="n">
+        <v>168032.41</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1">
+      <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354">
-        <v>222074.86</v>
+      <c r="B354" t="n">
+        <v>160820.93</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1">
+      <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355">
-        <v>224593.49</v>
+      <c r="B355" t="n">
+        <v>159538.2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1">
+      <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356">
-        <v>222527.45</v>
+      <c r="B356" t="n">
+        <v>160132.13</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1">
+      <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357">
-        <v>216990.32</v>
+      <c r="B357" t="n">
+        <v>158896.48</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1">
+      <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358">
-        <v>224160.35</v>
+      <c r="B358" t="n">
+        <v>164086.63</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1">
+      <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359">
-        <v>224894.51</v>
+      <c r="B359" t="n">
+        <v>170551.67</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1">
+      <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360">
-        <v>215287.31</v>
+      <c r="B360" t="n">
+        <v>166472.48</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1">
+      <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361">
-        <v>223931.53</v>
+      <c r="B361" t="n">
+        <v>163397.4</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1">
+      <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362">
-        <v>215195.53</v>
+      <c r="B362" t="n">
+        <v>164713.4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1">
+      <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363">
-        <v>217280.43</v>
+      <c r="B363" t="n">
+        <v>167253.03</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1">
+      <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364">
-        <v>211774.63</v>
+      <c r="B364" t="n">
+        <v>165634.34</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1">
+      <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365">
-        <v>208663.8</v>
+      <c r="B365" t="n">
+        <v>164189.5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1">
+      <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366">
-        <v>214350.17</v>
+      <c r="B366" t="n">
+        <v>163600.01</v>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="1">
+      <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367">
-        <v>194571.37</v>
+      <c r="B367" t="n">
+        <v>156486.48</v>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="1">
+      <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368">
-        <v>212947.02</v>
+      <c r="B368" t="n">
+        <v>158555.43</v>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="1">
+      <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369">
-        <v>216204.59</v>
+      <c r="B369" t="n">
+        <v>161560.23</v>
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="1">
+      <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370">
-        <v>215013.56</v>
+      <c r="B370" t="n">
+        <v>159497.18</v>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="1">
+      <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371">
-        <v>218648.46</v>
+      <c r="B371" t="n">
+        <v>158176.11</v>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="1">
+      <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372">
-        <v>210564.06</v>
+      <c r="B372" t="n">
+        <v>158805.71</v>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="1">
+      <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373">
-        <v>220226.59</v>
+      <c r="B373" t="n">
+        <v>152360.08</v>
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="1">
+      <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374">
-        <v>220029.59</v>
+      <c r="B374" t="n">
+        <v>154911.06</v>
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="1">
+      <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375">
-        <v>215423.16</v>
+      <c r="B375" t="n">
+        <v>156476.16</v>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="1">
+      <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376">
-        <v>223212.16</v>
+      <c r="B376" t="n">
+        <v>162885.16</v>
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="1">
+      <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377">
-        <v>224542.92</v>
+      <c r="B377" t="n">
+        <v>161574.86</v>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="1">
+      <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378">
-        <v>226202.72</v>
+      <c r="B378" t="n">
+        <v>159826.36</v>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="1">
+      <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379">
-        <v>226168.89</v>
+      <c r="B379" t="n">
+        <v>193233.73</v>
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="1">
+      <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380">
-        <v>227253.29</v>
+      <c r="B380" t="n">
+        <v>212360.11</v>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="1">
+      <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381">
-        <v>230859.19</v>
+      <c r="B381" t="n">
+        <v>212625.58</v>
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="1">
+      <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382">
-        <v>231639.72</v>
+      <c r="B382" t="n">
+        <v>212294.46</v>
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="1">
+      <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383">
-        <v>229760.32</v>
+      <c r="B383" t="n">
+        <v>211230.76</v>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="1">
+      <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384">
-        <v>229492.32</v>
+      <c r="B384" t="n">
+        <v>212379.06</v>
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="1">
+      <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385">
-        <v>231017.22</v>
+      <c r="B385" t="n">
+        <v>222278.08</v>
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="1">
+      <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386">
-        <v>231728.67</v>
+      <c r="B386" t="n">
+        <v>230834.58</v>
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="1">
+      <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387">
-        <v>231176.12</v>
+      <c r="B387" t="n">
+        <v>230311.46</v>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="1">
+      <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388">
-        <v>256111.77</v>
+      <c r="B388" t="n">
+        <v>229278.46</v>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="1">
+      <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389">
-        <v>260491.52</v>
+      <c r="B389" t="n">
+        <v>236680.23</v>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="1">
+      <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390">
-        <v>264526.72</v>
+      <c r="B390" t="n">
+        <v>260461.83</v>
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="1">
+      <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391">
-        <v>262619.73</v>
+      <c r="B391" t="n">
+        <v>260355.53</v>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="1">
+      <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392">
-        <v>259810.99</v>
+      <c r="B392" t="n">
+        <v>248536.03</v>
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="1">
+      <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393">
-        <v>265966.32</v>
+      <c r="B393" t="n">
+        <v>241722.33</v>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="1">
+      <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394">
-        <v>264470.5600000001</v>
+      <c r="B394" t="n">
+        <v>241246.86</v>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="1">
+      <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395">
-        <v>257195.62</v>
+      <c r="B395" t="n">
+        <v>227822.96</v>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="1">
+      <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396">
-        <v>258667.87</v>
+      <c r="B396" t="n">
+        <v>218209.66</v>
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="1">
+      <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397">
-        <v>265767.57</v>
+      <c r="B397" t="n">
+        <v>220131.33</v>
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="1">
+      <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398">
-        <v>260177.83</v>
+      <c r="B398" t="n">
+        <v>208916.6</v>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="1">
+      <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399">
-        <v>262780.05</v>
+      <c r="B399" t="n">
+        <v>193729.58</v>
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="1">
+      <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400">
-        <v>261503.03</v>
+      <c r="B400" t="n">
+        <v>191979.18</v>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="1">
+      <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401">
-        <v>255499.26</v>
+      <c r="B401" t="n">
+        <v>185114.67</v>
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="1">
+      <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402">
-        <v>247047.13</v>
+      <c r="B402" t="n">
+        <v>181129.37</v>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="1">
+      <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403">
-        <v>261552.02</v>
+      <c r="B403" t="n">
+        <v>184294.87</v>
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="1">
+      <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404">
-        <v>262813.68</v>
+      <c r="B404" t="n">
+        <v>184816.47</v>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="1">
+      <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405">
-        <v>255958.02</v>
+      <c r="B405" t="n">
+        <v>184030.77</v>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="1">
+      <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406">
-        <v>251471.13</v>
+      <c r="B406" t="n">
+        <v>182140.67</v>
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="1">
+      <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407">
-        <v>255979.93</v>
+      <c r="B407" t="n">
+        <v>187046.17</v>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="1">
+      <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408">
-        <v>264431.13</v>
+      <c r="B408" t="n">
+        <v>190594.77</v>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="1">
+      <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409">
-        <v>271660.72</v>
+      <c r="B409" t="n">
+        <v>190249.67</v>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="1">
+      <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410">
-        <v>293355.22</v>
+      <c r="B410" t="n">
+        <v>196337.87</v>
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="1">
+      <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411">
-        <v>316568.41</v>
+      <c r="B411" t="n">
+        <v>203603.87</v>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="1">
+      <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412">
-        <v>316883.42</v>
+      <c r="B412" t="n">
+        <v>204455.5</v>
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="1">
+      <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413">
-        <v>304340.02</v>
+      <c r="B413" t="n">
+        <v>212795.81</v>
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="1">
+      <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414">
-        <v>296135.72</v>
+      <c r="B414" t="n">
+        <v>236665.3</v>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="1">
+      <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415">
-        <v>282573.52</v>
+      <c r="B415" t="n">
+        <v>241115.5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="1">
+      <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416">
-        <v>281981.82</v>
+      <c r="B416" t="n">
+        <v>232216.7</v>
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="1">
+      <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417">
-        <v>280284.12</v>
+      <c r="B417" t="n">
+        <v>220558.78</v>
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="1">
+      <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418">
-        <v>279790.02</v>
+      <c r="B418" t="n">
+        <v>214543.08</v>
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="1">
+      <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419">
-        <v>275339.13</v>
+      <c r="B419" t="n">
+        <v>209159.58</v>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="1">
+      <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420">
-        <v>271700.03</v>
+      <c r="B420" t="n">
+        <v>206321.98</v>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="1">
+      <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421">
-        <v>266544.13</v>
+      <c r="B421" t="n">
+        <v>202706.2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="1">
+      <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="B422">
-        <v>266992.93</v>
+      <c r="B422" t="n">
+        <v>199081.3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="1">
+      <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B423">
-        <v>272421.83</v>
+      <c r="B423" t="n">
+        <v>200351.7</v>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="1">
+      <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B424">
-        <v>287918.9300000001</v>
+      <c r="B424" t="n">
+        <v>197264.11</v>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="1">
+      <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="B425">
-        <v>276033.4300000001</v>
+      <c r="B425" t="n">
+        <v>187941.71</v>
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="1">
+      <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="B426">
-        <v>290705.13</v>
+      <c r="B426" t="n">
+        <v>189131.1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="1">
+      <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="B427">
-        <v>242481.76</v>
+      <c r="B427" t="n">
+        <v>148753.11</v>
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="1">
+      <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="B428">
-        <v>231779.36</v>
+      <c r="B428" t="n">
+        <v>149764.7</v>
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="1">
+      <c r="A429" s="1" t="n">
         <v>427</v>
       </c>
-      <c r="B429">
-        <v>225791.74</v>
+      <c r="B429" t="n">
+        <v>148651.2</v>
       </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="1">
+      <c r="A430" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="B430">
-        <v>231031.4</v>
+      <c r="B430" t="n">
+        <v>145972.24</v>
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="1">
+      <c r="A431" s="1" t="n">
         <v>429</v>
       </c>
-      <c r="B431">
-        <v>264563.18</v>
+      <c r="B431" t="n">
+        <v>147270.02</v>
       </c>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="1">
+      <c r="A432" s="1" t="n">
         <v>430</v>
       </c>
-      <c r="B432">
-        <v>289476.29</v>
+      <c r="B432" t="n">
+        <v>157134.82</v>
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="1">
+      <c r="A433" s="1" t="n">
         <v>431</v>
       </c>
-      <c r="B433">
-        <v>298837.03</v>
+      <c r="B433" t="n">
+        <v>165291.74</v>
       </c>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="1">
+      <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
-      <c r="B434">
-        <v>309192.96</v>
+      <c r="B434" t="n">
+        <v>163970.94</v>
       </c>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="1">
+      <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
-      <c r="B435">
-        <v>323616.24</v>
+      <c r="B435" t="n">
+        <v>162562.74</v>
       </c>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="1">
+      <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
-      <c r="B436">
-        <v>319792.98</v>
+      <c r="B436" t="n">
+        <v>159344.14</v>
       </c>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="1">
+      <c r="A437" s="1" t="n">
         <v>435</v>
       </c>
-      <c r="B437">
-        <v>314354.23</v>
+      <c r="B437" t="n">
+        <v>153147.14</v>
       </c>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="1">
+      <c r="A438" s="1" t="n">
         <v>436</v>
       </c>
-      <c r="B438">
-        <v>311014.33</v>
+      <c r="B438" t="n">
+        <v>159692.54</v>
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="1">
+      <c r="A439" s="1" t="n">
         <v>437</v>
       </c>
-      <c r="B439">
-        <v>319527.98</v>
+      <c r="B439" t="n">
+        <v>151930.85</v>
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="1">
+      <c r="A440" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="B440">
-        <v>315875.82</v>
+      <c r="B440" t="n">
+        <v>166109.55</v>
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="1">
+      <c r="A441" s="1" t="n">
         <v>439</v>
       </c>
-      <c r="B441">
-        <v>325808.99</v>
+      <c r="B441" t="n">
+        <v>167167.35</v>
       </c>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="1">
+      <c r="A442" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="B442">
-        <v>327265.18</v>
+      <c r="B442" t="n">
+        <v>180410.35</v>
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="1">
+      <c r="A443" s="1" t="n">
         <v>441</v>
       </c>
-      <c r="B443">
-        <v>330878.6799999999</v>
+      <c r="B443" t="n">
+        <v>174529.86</v>
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="1">
+      <c r="A444" s="1" t="n">
         <v>442</v>
       </c>
-      <c r="B444">
-        <v>317043.78</v>
+      <c r="B444" t="n">
+        <v>168323.85</v>
       </c>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="1">
+      <c r="A445" s="1" t="n">
         <v>443</v>
       </c>
-      <c r="B445">
-        <v>319420.33</v>
+      <c r="B445" t="n">
+        <v>166862.49</v>
       </c>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="1">
+      <c r="A446" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="B446">
-        <v>315965.1</v>
+      <c r="B446" t="n">
+        <v>165390.79</v>
       </c>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="1">
+      <c r="A447" s="1" t="n">
         <v>445</v>
       </c>
-      <c r="B447">
-        <v>321225</v>
+      <c r="B447" t="n">
+        <v>166519.37</v>
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="1">
+      <c r="A448" s="1" t="n">
         <v>446</v>
       </c>
-      <c r="B448">
-        <v>309591.2</v>
+      <c r="B448" t="n">
+        <v>161270.1</v>
       </c>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="1">
+      <c r="A449" s="1" t="n">
         <v>447</v>
       </c>
-      <c r="B449">
-        <v>314756.3</v>
+      <c r="B449" t="n">
+        <v>158469.68</v>
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="1">
+      <c r="A450" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B450">
-        <v>303780.7</v>
+      <c r="B450" t="n">
+        <v>134510.9</v>
       </c>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="1">
+      <c r="A451" s="1" t="n">
         <v>449</v>
       </c>
-      <c r="B451">
-        <v>293830.1</v>
+      <c r="B451" t="n">
+        <v>143393.8</v>
       </c>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="1">
+      <c r="A452" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="B452">
-        <v>293967.7</v>
+      <c r="B452" t="n">
+        <v>134327.7</v>
       </c>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="1">
+      <c r="A453" s="1" t="n">
         <v>451</v>
       </c>
-      <c r="B453">
-        <v>296324.8</v>
+      <c r="B453" t="n">
+        <v>144249.27</v>
       </c>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="1">
+      <c r="A454" s="1" t="n">
         <v>452</v>
       </c>
-      <c r="B454">
-        <v>307122.2</v>
+      <c r="B454" t="n">
+        <v>139877.73</v>
       </c>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="1">
+      <c r="A455" s="1" t="n">
         <v>453</v>
       </c>
-      <c r="B455">
-        <v>303038.8</v>
+      <c r="B455" t="n">
+        <v>144930.04</v>
       </c>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="1">
+      <c r="A456" s="1" t="n">
         <v>454</v>
       </c>
-      <c r="B456">
-        <v>294091.5</v>
+      <c r="B456" t="n">
+        <v>138613.07</v>
       </c>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="1">
+      <c r="A457" s="1" t="n">
         <v>455</v>
       </c>
-      <c r="B457">
-        <v>257208.3</v>
+      <c r="B457" t="n">
+        <v>116376.29</v>
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="1">
+      <c r="A458" s="1" t="n">
         <v>456</v>
       </c>
-      <c r="B458">
-        <v>222737.2</v>
+      <c r="B458" t="n">
+        <v>98851.17999999999</v>
       </c>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="1">
+      <c r="A459" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="B459">
-        <v>229966.8</v>
+      <c r="B459" t="n">
+        <v>100206.6</v>
       </c>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="1">
+      <c r="A460" s="1" t="n">
         <v>458</v>
       </c>
-      <c r="B460">
-        <v>224338.99</v>
+      <c r="B460" t="n">
+        <v>98262.83</v>
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="1">
+      <c r="A461" s="1" t="n">
         <v>459</v>
       </c>
-      <c r="B461">
-        <v>227338.17</v>
+      <c r="B461" t="n">
+        <v>100982.33</v>
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="1">
+      <c r="A462" s="1" t="n">
         <v>460</v>
       </c>
-      <c r="B462">
-        <v>223993.42</v>
+      <c r="B462" t="n">
+        <v>104858.44</v>
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="1">
+      <c r="A463" s="1" t="n">
         <v>461</v>
       </c>
-      <c r="B463">
-        <v>237895.2</v>
+      <c r="B463" t="n">
+        <v>116705.03</v>
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="1">
+      <c r="A464" s="1" t="n">
         <v>462</v>
       </c>
-      <c r="B464">
-        <v>259009.02</v>
+      <c r="B464" t="n">
+        <v>175068.44</v>
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="1">
+      <c r="A465" s="1" t="n">
         <v>463</v>
       </c>
-      <c r="B465">
-        <v>257709.69</v>
+      <c r="B465" t="n">
+        <v>168091.53</v>
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="1">
+      <c r="A466" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="B466">
-        <v>285734.33</v>
+      <c r="B466" t="n">
+        <v>175665.06</v>
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="1">
+      <c r="A467" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="B467">
-        <v>280138.53</v>
+      <c r="B467" t="n">
+        <v>180384.27</v>
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="1">
+      <c r="A468" s="1" t="n">
         <v>466</v>
       </c>
-      <c r="B468">
-        <v>278169.79</v>
+      <c r="B468" t="n">
+        <v>183420.32</v>
       </c>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="1">
+      <c r="A469" s="1" t="n">
         <v>467</v>
       </c>
-      <c r="B469">
-        <v>273192.59</v>
+      <c r="B469" t="n">
+        <v>177801.77</v>
       </c>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="1">
+      <c r="A470" s="1" t="n">
         <v>468</v>
       </c>
-      <c r="B470">
-        <v>265166.09</v>
+      <c r="B470" t="n">
+        <v>166729.52</v>
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="1">
+      <c r="A471" s="1" t="n">
         <v>469</v>
       </c>
-      <c r="B471">
-        <v>268567.52</v>
+      <c r="B471" t="n">
+        <v>163124.62</v>
       </c>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="1">
+      <c r="A472" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="B472">
-        <v>232453.02</v>
+      <c r="B472" t="n">
+        <v>139036.41</v>
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="1">
+      <c r="A473" s="1" t="n">
         <v>471</v>
       </c>
-      <c r="B473">
-        <v>241589.22</v>
+      <c r="B473" t="n">
+        <v>135817.74</v>
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="1">
+      <c r="A474" s="1" t="n">
         <v>472</v>
       </c>
-      <c r="B474">
-        <v>264182.5</v>
+      <c r="B474" t="n">
+        <v>131374.69</v>
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="1">
+      <c r="A475" s="1" t="n">
         <v>473</v>
       </c>
-      <c r="B475">
-        <v>259722.62</v>
+      <c r="B475" t="n">
+        <v>132547.94</v>
       </c>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="1">
+      <c r="A476" s="1" t="n">
         <v>474</v>
       </c>
-      <c r="B476">
-        <v>255661.23</v>
+      <c r="B476" t="n">
+        <v>140033.42</v>
       </c>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="1">
+      <c r="A477" s="1" t="n">
         <v>475</v>
       </c>
-      <c r="B477">
-        <v>254054.79</v>
+      <c r="B477" t="n">
+        <v>142206.46</v>
       </c>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="1">
+      <c r="A478" s="1" t="n">
         <v>476</v>
       </c>
-      <c r="B478">
-        <v>239874.93</v>
+      <c r="B478" t="n">
+        <v>138835.91</v>
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="1">
+      <c r="A479" s="1" t="n">
         <v>477</v>
       </c>
-      <c r="B479">
-        <v>249246.82</v>
+      <c r="B479" t="n">
+        <v>139844.79</v>
       </c>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="1">
+      <c r="A480" s="1" t="n">
         <v>478</v>
       </c>
-      <c r="B480">
-        <v>261843.4</v>
+      <c r="B480" t="n">
+        <v>140747.38</v>
       </c>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="1">
+      <c r="A481" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="B481">
-        <v>269797.6</v>
+      <c r="B481" t="n">
+        <v>146395.32</v>
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="1">
+      <c r="A482" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="B482">
-        <v>270047</v>
+      <c r="B482" t="n">
+        <v>143066.59</v>
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="1">
+      <c r="A483" s="1" t="n">
         <v>481</v>
       </c>
-      <c r="B483">
-        <v>284217.5</v>
+      <c r="B483" t="n">
+        <v>141356.88</v>
       </c>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="1">
+      <c r="A484" s="1" t="n">
         <v>482</v>
       </c>
-      <c r="B484">
-        <v>313184.7</v>
+      <c r="B484" t="n">
+        <v>137975.84</v>
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="1">
+      <c r="A485" s="1" t="n">
         <v>483</v>
       </c>
-      <c r="B485">
-        <v>327952.5</v>
+      <c r="B485" t="n">
+        <v>140073.59</v>
       </c>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="1">
+      <c r="A486" s="1" t="n">
         <v>484</v>
       </c>
-      <c r="B486">
-        <v>345012.4</v>
+      <c r="B486" t="n">
+        <v>139074.34</v>
       </c>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="1">
+      <c r="A487" s="1" t="n">
         <v>485</v>
       </c>
-      <c r="B487">
-        <v>270751.9</v>
+      <c r="B487" t="n">
+        <v>83209.19</v>
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="1">
+      <c r="A488" s="1" t="n">
         <v>486</v>
       </c>
-      <c r="B488">
-        <v>289962</v>
+      <c r="B488" t="n">
+        <v>103068.32</v>
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="1">
+      <c r="A489" s="1" t="n">
         <v>487</v>
       </c>
-      <c r="B489">
-        <v>300263</v>
+      <c r="B489" t="n">
+        <v>108339.1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="1">
+      <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
-      <c r="B490">
-        <v>325010.4</v>
+      <c r="B490" t="n">
+        <v>117332.2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="1">
+      <c r="A491" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="B491">
-        <v>321110.4</v>
+      <c r="B491" t="n">
+        <v>130981.7</v>
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="1">
+      <c r="A492" s="1" t="n">
         <v>490</v>
       </c>
-      <c r="B492">
-        <v>355300.1</v>
+      <c r="B492" t="n">
+        <v>147620.1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="1">
+      <c r="A493" s="1" t="n">
         <v>491</v>
       </c>
-      <c r="B493">
-        <v>356121.8</v>
+      <c r="B493" t="n">
+        <v>158330.6</v>
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="1">
+      <c r="A494" s="1" t="n">
         <v>492</v>
       </c>
-      <c r="B494">
-        <v>372722</v>
+      <c r="B494" t="n">
+        <v>157926.2</v>
       </c>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="1">
+      <c r="A495" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="B495">
-        <v>350254.8</v>
+      <c r="B495" t="n">
+        <v>154049.6</v>
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="1">
+      <c r="A496" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="B496">
-        <v>339745.8</v>
+      <c r="B496" t="n">
+        <v>153509.3</v>
       </c>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="1">
+      <c r="A497" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="B497">
-        <v>290087.9</v>
+      <c r="B497" t="n">
+        <v>148856.2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="1">
+      <c r="A498" s="1" t="n">
         <v>496</v>
       </c>
-      <c r="B498">
-        <v>289135.2</v>
+      <c r="B498" t="n">
+        <v>143581.2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="1">
+      <c r="A499" s="1" t="n">
         <v>497</v>
       </c>
-      <c r="B499">
-        <v>268094.2</v>
+      <c r="B499" t="n">
+        <v>139375.6</v>
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="1">
+      <c r="A500" s="1" t="n">
         <v>498</v>
       </c>
-      <c r="B500">
-        <v>287465.7</v>
+      <c r="B500" t="n">
+        <v>134587.6</v>
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="1">
+      <c r="A501" s="1" t="n">
         <v>499</v>
       </c>
-      <c r="B501">
-        <v>267377</v>
+      <c r="B501" t="n">
+        <v>132613.9</v>
       </c>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="1">
+      <c r="A502" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B502">
-        <v>319739.4</v>
+      <c r="B502" t="n">
+        <v>170889</v>
       </c>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="1">
+      <c r="A503" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="B503">
-        <v>319309.4</v>
+      <c r="B503" t="n">
+        <v>197342.1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="1">
+      <c r="A504" s="1" t="n">
         <v>502</v>
       </c>
-      <c r="B504">
-        <v>345719</v>
+      <c r="B504" t="n">
+        <v>234271.1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="1">
+      <c r="A505" s="1" t="n">
         <v>503</v>
       </c>
-      <c r="B505">
-        <v>331035.2</v>
+      <c r="B505" t="n">
+        <v>252745.9</v>
       </c>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="1">
+      <c r="A506" s="1" t="n">
         <v>504</v>
       </c>
-      <c r="B506">
-        <v>359776.5</v>
+      <c r="B506" t="n">
+        <v>259512.1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="1">
+      <c r="A507" s="1" t="n">
         <v>505</v>
       </c>
-      <c r="B507">
-        <v>360772.1</v>
+      <c r="B507" t="n">
+        <v>261653</v>
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="1">
+      <c r="A508" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B508">
-        <v>368349</v>
+      <c r="B508" t="n">
+        <v>271404.8</v>
       </c>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="1">
+      <c r="A509" s="1" t="n">
         <v>507</v>
       </c>
-      <c r="B509">
-        <v>361522.2</v>
+      <c r="B509" t="n">
+        <v>291796.7</v>
       </c>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="1">
+      <c r="A510" s="1" t="n">
         <v>508</v>
       </c>
-      <c r="B510">
-        <v>387703.2</v>
+      <c r="B510" t="n">
+        <v>281526.4</v>
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="1">
+      <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
-      <c r="B511">
-        <v>393263.3</v>
+      <c r="B511" t="n">
+        <v>296147.5</v>
       </c>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="1">
+      <c r="A512" s="1" t="n">
         <v>510</v>
       </c>
-      <c r="B512">
-        <v>414892.1</v>
+      <c r="B512" t="n">
+        <v>290636</v>
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="1">
+      <c r="A513" s="1" t="n">
         <v>511</v>
       </c>
-      <c r="B513">
-        <v>424986.6</v>
+      <c r="B513" t="n">
+        <v>312362.1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="1">
+      <c r="A514" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="B514">
-        <v>421033.3</v>
+      <c r="B514" t="n">
+        <v>299705.4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="1">
+      <c r="A515" s="1" t="n">
         <v>513</v>
       </c>
-      <c r="B515">
-        <v>420058.6</v>
+      <c r="B515" t="n">
+        <v>307240.8</v>
       </c>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="1">
+      <c r="A516" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="B516">
-        <v>418706.7</v>
+      <c r="B516" t="n">
+        <v>284611.1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="1">
+      <c r="A517" s="1" t="n">
         <v>515</v>
       </c>
-      <c r="B517">
-        <v>415976</v>
+      <c r="B517" t="n">
+        <v>294820.9</v>
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="1">
+      <c r="A518" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="B518">
-        <v>431707.9</v>
+      <c r="B518" t="n">
+        <v>305513.1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="1">
+      <c r="A519" s="1" t="n">
         <v>517</v>
       </c>
-      <c r="B519">
-        <v>433981.2</v>
+      <c r="B519" t="n">
+        <v>326176.6</v>
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="1">
+      <c r="A520" s="1" t="n">
         <v>518</v>
       </c>
-      <c r="B520">
-        <v>444337.9</v>
+      <c r="B520" t="n">
+        <v>318085.3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="1">
+      <c r="A521" s="1" t="n">
         <v>519</v>
       </c>
-      <c r="B521">
-        <v>444022.9</v>
+      <c r="B521" t="n">
+        <v>340370.9</v>
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="1">
+      <c r="A522" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="B522">
-        <v>445073.7</v>
+      <c r="B522" t="n">
+        <v>339202.8</v>
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="1">
+      <c r="A523" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B523">
-        <v>450904.7</v>
+      <c r="B523" t="n">
+        <v>343270.1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="1">
+      <c r="A524" s="1" t="n">
         <v>522</v>
       </c>
-      <c r="B524">
-        <v>448707.8</v>
+      <c r="B524" t="n">
+        <v>343584.9</v>
       </c>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="1">
+      <c r="A525" s="1" t="n">
         <v>523</v>
       </c>
-      <c r="B525">
-        <v>445257.6</v>
+      <c r="B525" t="n">
+        <v>345133.4</v>
       </c>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="1">
+      <c r="A526" s="1" t="n">
         <v>524</v>
       </c>
-      <c r="B526">
-        <v>446012</v>
+      <c r="B526" t="n">
+        <v>352422.7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="1">
+      <c r="A527" s="1" t="n">
         <v>525</v>
       </c>
-      <c r="B527">
-        <v>445515.9</v>
+      <c r="B527" t="n">
+        <v>350602.5</v>
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="1">
+      <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
-      <c r="B528">
-        <v>450520.7</v>
+      <c r="B528" t="n">
+        <v>348898</v>
       </c>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="1">
+      <c r="A529" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="B529">
-        <v>447514.7</v>
+      <c r="B529" t="n">
+        <v>347148</v>
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="1">
+      <c r="A530" s="1" t="n">
         <v>528</v>
       </c>
-      <c r="B530">
-        <v>448928.6</v>
+      <c r="B530" t="n">
+        <v>337561.1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="1">
+      <c r="A531" s="1" t="n">
         <v>529</v>
       </c>
-      <c r="B531">
-        <v>450742.8</v>
+      <c r="B531" t="n">
+        <v>320436.4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="1">
+      <c r="A532" s="1" t="n">
         <v>530</v>
       </c>
-      <c r="B532">
-        <v>444314.8</v>
+      <c r="B532" t="n">
+        <v>311227</v>
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="1">
+      <c r="A533" s="1" t="n">
         <v>531</v>
       </c>
-      <c r="B533">
-        <v>430249.5</v>
+      <c r="B533" t="n">
+        <v>332991</v>
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="1">
+      <c r="A534" s="1" t="n">
         <v>532</v>
       </c>
-      <c r="B534">
-        <v>421812.9</v>
+      <c r="B534" t="n">
+        <v>327657.1</v>
       </c>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="1">
+      <c r="A535" s="1" t="n">
         <v>533</v>
       </c>
-      <c r="B535">
-        <v>413688.5</v>
+      <c r="B535" t="n">
+        <v>337970.6</v>
       </c>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="1">
+      <c r="A536" s="1" t="n">
         <v>534</v>
       </c>
-      <c r="B536">
-        <v>427368.6</v>
+      <c r="B536" t="n">
+        <v>325788.8</v>
       </c>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="1">
+      <c r="A537" s="1" t="n">
         <v>535</v>
       </c>
-      <c r="B537">
-        <v>431020.3</v>
+      <c r="B537" t="n">
+        <v>333178</v>
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="1">
+      <c r="A538" s="1" t="n">
         <v>536</v>
       </c>
-      <c r="B538">
-        <v>422773.6</v>
+      <c r="B538" t="n">
+        <v>323752.8</v>
       </c>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="1">
+      <c r="A539" s="1" t="n">
         <v>537</v>
       </c>
-      <c r="B539">
-        <v>412978.5</v>
+      <c r="B539" t="n">
+        <v>331924</v>
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="1">
+      <c r="A540" s="1" t="n">
         <v>538</v>
       </c>
-      <c r="B540">
-        <v>409921.6</v>
+      <c r="B540" t="n">
+        <v>326719.5</v>
       </c>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="1">
+      <c r="A541" s="1" t="n">
         <v>539</v>
       </c>
-      <c r="B541">
-        <v>402375.6</v>
+      <c r="B541" t="n">
+        <v>327731.3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="1">
+      <c r="A542" s="1" t="n">
         <v>540</v>
       </c>
-      <c r="B542">
-        <v>404710.6</v>
+      <c r="B542" t="n">
+        <v>319901.7</v>
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="1">
+      <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
-      <c r="B543">
-        <v>399597.9</v>
+      <c r="B543" t="n">
+        <v>315725.7</v>
       </c>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="1">
+      <c r="A544" s="1" t="n">
         <v>542</v>
       </c>
-      <c r="B544">
-        <v>400218.5</v>
+      <c r="B544" t="n">
+        <v>308713.3</v>
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="1">
+      <c r="A545" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="B545">
-        <v>392782.6</v>
+      <c r="B545" t="n">
+        <v>312379.4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="1">
+      <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
-      <c r="B546">
-        <v>398462.8</v>
+      <c r="B546" t="n">
+        <v>313407</v>
       </c>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="1">
+      <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
-      <c r="B547">
-        <v>391143.4</v>
+      <c r="B547" t="n">
+        <v>304994.2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="1">
+      <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
-      <c r="B548">
-        <v>377526.6</v>
+      <c r="B548" t="n">
+        <v>290936.9</v>
       </c>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="1">
+      <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
-      <c r="B549">
-        <v>288400</v>
+      <c r="B549" t="n">
+        <v>214896.7</v>
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="1">
+      <c r="A550" s="1" t="n">
         <v>548</v>
       </c>
-      <c r="B550">
-        <v>269995</v>
+      <c r="B550" t="n">
+        <v>202061.7</v>
       </c>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="1">
+      <c r="A551" s="1" t="n">
         <v>549</v>
       </c>
-      <c r="B551">
-        <v>255713</v>
+      <c r="B551" t="n">
+        <v>203434.3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="1">
+      <c r="A552" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="B552">
-        <v>237789.6</v>
+      <c r="B552" t="n">
+        <v>205528.9</v>
       </c>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="1">
+      <c r="A553" s="1" t="n">
         <v>551</v>
       </c>
-      <c r="B553">
-        <v>233016.3</v>
+      <c r="B553" t="n">
+        <v>203682.1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="1">
+      <c r="A554" s="1" t="n">
         <v>552</v>
       </c>
-      <c r="B554">
-        <v>257483.8</v>
+      <c r="B554" t="n">
+        <v>194394.7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="1">
+      <c r="A555" s="1" t="n">
         <v>553</v>
       </c>
-      <c r="B555">
-        <v>272422.3</v>
+      <c r="B555" t="n">
+        <v>188243.5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="1">
+      <c r="A556" s="1" t="n">
         <v>554</v>
       </c>
-      <c r="B556">
-        <v>257030</v>
+      <c r="B556" t="n">
+        <v>184308.8</v>
       </c>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="1">
+      <c r="A557" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="B557">
-        <v>258551.8</v>
+      <c r="B557" t="n">
+        <v>187841.8</v>
       </c>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="1">
+      <c r="A558" s="1" t="n">
         <v>556</v>
       </c>
-      <c r="B558">
-        <v>254817.4</v>
+      <c r="B558" t="n">
+        <v>177210.7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="1">
+      <c r="A559" s="1" t="n">
         <v>557</v>
       </c>
-      <c r="B559">
-        <v>249449.4</v>
+      <c r="B559" t="n">
+        <v>177365.1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="1">
+      <c r="A560" s="1" t="n">
         <v>558</v>
       </c>
-      <c r="B560">
-        <v>257655.8</v>
+      <c r="B560" t="n">
+        <v>170831.4</v>
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="1">
+      <c r="A561" s="1" t="n">
         <v>559</v>
       </c>
-      <c r="B561">
-        <v>233283.9</v>
+      <c r="B561" t="n">
+        <v>165968.4</v>
       </c>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="1">
+      <c r="A562" s="1" t="n">
         <v>560</v>
       </c>
-      <c r="B562">
-        <v>212528.5</v>
+      <c r="B562" t="n">
+        <v>160024.9</v>
       </c>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="1">
+      <c r="A563" s="1" t="n">
         <v>561</v>
       </c>
-      <c r="B563">
-        <v>206815.7</v>
+      <c r="B563" t="n">
+        <v>163687.1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="1">
+      <c r="A564" s="1" t="n">
         <v>562</v>
       </c>
-      <c r="B564">
-        <v>205883.4</v>
+      <c r="B564" t="n">
+        <v>167194.7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="1">
+      <c r="A565" s="1" t="n">
         <v>563</v>
       </c>
-      <c r="B565">
-        <v>214399.8</v>
+      <c r="B565" t="n">
+        <v>157218.4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="1">
+      <c r="A566" s="1" t="n">
         <v>564</v>
       </c>
-      <c r="B566">
-        <v>199974.5</v>
+      <c r="B566" t="n">
+        <v>151054.2</v>
       </c>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="1">
+      <c r="A567" s="1" t="n">
         <v>565</v>
       </c>
-      <c r="B567">
-        <v>211947.6</v>
+      <c r="B567" t="n">
+        <v>149690.8</v>
       </c>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="1">
+      <c r="A568" s="1" t="n">
         <v>566</v>
       </c>
-      <c r="B568">
-        <v>203284.5</v>
+      <c r="B568" t="n">
+        <v>146202.1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="1">
+      <c r="A569" s="1" t="n">
         <v>567</v>
       </c>
-      <c r="B569">
-        <v>199977.7</v>
+      <c r="B569" t="n">
+        <v>148377.1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="1">
+      <c r="A570" s="1" t="n">
         <v>568</v>
       </c>
-      <c r="B570">
-        <v>202941.7</v>
+      <c r="B570" t="n">
+        <v>137380.3</v>
       </c>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="1">
+      <c r="A571" s="1" t="n">
         <v>569</v>
       </c>
-      <c r="B571">
-        <v>192188.8</v>
+      <c r="B571" t="n">
+        <v>138939.5</v>
       </c>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="1">
+      <c r="A572" s="1" t="n">
         <v>570</v>
       </c>
-      <c r="B572">
-        <v>205291.9</v>
+      <c r="B572" t="n">
+        <v>139812.5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="1">
+      <c r="A573" s="1" t="n">
         <v>571</v>
       </c>
-      <c r="B573">
-        <v>196471.4</v>
+      <c r="B573" t="n">
+        <v>138541.1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="1">
+      <c r="A574" s="1" t="n">
         <v>572</v>
       </c>
-      <c r="B574">
-        <v>196802.8</v>
+      <c r="B574" t="n">
+        <v>147242.1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="1">
+      <c r="A575" s="1" t="n">
         <v>573</v>
       </c>
-      <c r="B575">
-        <v>182032.9</v>
+      <c r="B575" t="n">
+        <v>143256</v>
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="1">
+      <c r="A576" s="1" t="n">
         <v>574</v>
       </c>
-      <c r="B576">
-        <v>175770.4</v>
+      <c r="B576" t="n">
+        <v>148190.77</v>
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="1">
+      <c r="A577" s="1" t="n">
         <v>575</v>
       </c>
-      <c r="B577">
-        <v>162413.4</v>
+      <c r="B577" t="n">
+        <v>145574.09</v>
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="1">
+      <c r="A578" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="B578">
-        <v>172911.4</v>
+      <c r="B578" t="n">
+        <v>140115.66</v>
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="1">
+      <c r="A579" s="1" t="n">
         <v>577</v>
       </c>
-      <c r="B579">
-        <v>167094.3</v>
+      <c r="B579" t="n">
+        <v>130307.65</v>
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="1">
+      <c r="A580" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="B580">
-        <v>153138</v>
+      <c r="B580" t="n">
+        <v>143572.15</v>
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="1">
+      <c r="A581" s="1" t="n">
         <v>579</v>
       </c>
-      <c r="B581">
-        <v>169112.6</v>
+      <c r="B581" t="n">
+        <v>156438.09</v>
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="1">
+      <c r="A582" s="1" t="n">
         <v>580</v>
       </c>
-      <c r="B582">
-        <v>172214.8</v>
+      <c r="B582" t="n">
+        <v>143453.98</v>
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="1">
+      <c r="A583" s="1" t="n">
         <v>581</v>
       </c>
-      <c r="B583">
-        <v>168359.3</v>
+      <c r="B583" t="n">
+        <v>145775.02</v>
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="1">
+      <c r="A584" s="1" t="n">
         <v>582</v>
       </c>
-      <c r="B584">
-        <v>162992.7</v>
+      <c r="B584" t="n">
+        <v>132312.48</v>
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="1">
+      <c r="A585" s="1" t="n">
         <v>583</v>
       </c>
-      <c r="B585">
-        <v>164483.26</v>
+      <c r="B585" t="n">
+        <v>115865.9</v>
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="1">
+      <c r="A586" s="1" t="n">
         <v>584</v>
       </c>
-      <c r="B586">
-        <v>156129.8</v>
+      <c r="B586" t="n">
+        <v>116140.18</v>
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="1">
+      <c r="A587" s="1" t="n">
         <v>585</v>
       </c>
-      <c r="B587">
-        <v>159681.3</v>
+      <c r="B587" t="n">
+        <v>108447.58</v>
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="1">
+      <c r="A588" s="1" t="n">
         <v>586</v>
       </c>
-      <c r="B588">
-        <v>168220.9</v>
+      <c r="B588" t="n">
+        <v>103996.22</v>
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="1">
+      <c r="A589" s="1" t="n">
         <v>587</v>
       </c>
-      <c r="B589">
-        <v>158982</v>
+      <c r="B589" t="n">
+        <v>109014.14</v>
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="1">
+      <c r="A590" s="1" t="n">
         <v>588</v>
       </c>
-      <c r="B590">
-        <v>159517.6</v>
+      <c r="B590" t="n">
+        <v>102947.9</v>
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="1">
+      <c r="A591" s="1" t="n">
         <v>589</v>
       </c>
-      <c r="B591">
-        <v>157791.4</v>
+      <c r="B591" t="n">
+        <v>103661.01</v>
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="1">
+      <c r="A592" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="B592">
-        <v>159175.2</v>
+      <c r="B592" t="n">
+        <v>102494.12</v>
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="1">
+      <c r="A593" s="1" t="n">
         <v>591</v>
       </c>
-      <c r="B593">
-        <v>165302.2</v>
+      <c r="B593" t="n">
+        <v>101785.62</v>
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="1">
+      <c r="A594" s="1" t="n">
         <v>592</v>
       </c>
-      <c r="B594">
-        <v>173128.3</v>
+      <c r="B594" t="n">
+        <v>108298.22</v>
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="1">
+      <c r="A595" s="1" t="n">
         <v>593</v>
       </c>
-      <c r="B595">
-        <v>170919.4</v>
+      <c r="B595" t="n">
+        <v>111258.36</v>
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="1">
+      <c r="A596" s="1" t="n">
         <v>594</v>
       </c>
-      <c r="B596">
-        <v>172376.95</v>
+      <c r="B596" t="n">
+        <v>108861.29</v>
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="1">
+      <c r="A597" s="1" t="n">
         <v>595</v>
       </c>
-      <c r="B597">
-        <v>169370.47</v>
+      <c r="B597" t="n">
+        <v>103384.19</v>
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="1">
+      <c r="A598" s="1" t="n">
         <v>596</v>
       </c>
-      <c r="B598">
-        <v>177737.51</v>
+      <c r="B598" t="n">
+        <v>106484.69</v>
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="1">
+      <c r="A599" s="1" t="n">
         <v>597</v>
       </c>
-      <c r="B599">
-        <v>168285</v>
+      <c r="B599" t="n">
+        <v>105163.46</v>
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="1">
+      <c r="A600" s="1" t="n">
         <v>598</v>
       </c>
-      <c r="B600">
-        <v>177369.4</v>
+      <c r="B600" t="n">
+        <v>106260.35</v>
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="1">
+      <c r="A601" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="B601">
-        <v>175877.7</v>
+      <c r="B601" t="n">
+        <v>109106.93</v>
       </c>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="1">
+      <c r="A602" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="B602">
-        <v>177272.2</v>
+      <c r="B602" t="n">
+        <v>103855.65</v>
       </c>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="1">
+      <c r="A603" s="1" t="n">
         <v>601</v>
       </c>
-      <c r="B603">
-        <v>176194.7</v>
+      <c r="B603" t="n">
+        <v>111269.88</v>
       </c>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="1">
+      <c r="A604" s="1" t="n">
         <v>602</v>
       </c>
-      <c r="B604">
-        <v>170924.7</v>
+      <c r="B604" t="n">
+        <v>108888.38</v>
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="1">
+      <c r="A605" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="B605">
-        <v>170624.68</v>
+      <c r="B605" t="n">
+        <v>109222.27</v>
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="1">
+      <c r="A606" s="1" t="n">
         <v>604</v>
       </c>
-      <c r="B606">
-        <v>161855.65</v>
+      <c r="B606" t="n">
+        <v>107503.8</v>
       </c>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="1">
+      <c r="A607" s="1" t="n">
         <v>605</v>
       </c>
-      <c r="B607">
-        <v>166140.3</v>
+      <c r="B607" t="n">
+        <v>104438.12</v>
       </c>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="1">
+      <c r="A608" s="1" t="n">
         <v>606</v>
       </c>
-      <c r="B608">
-        <v>171845.8</v>
+      <c r="B608" t="n">
+        <v>110762.28</v>
       </c>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="1">
+      <c r="A609" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="B609">
-        <v>203102.4</v>
+      <c r="B609" t="n">
+        <v>132939.39</v>
       </c>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="1">
+      <c r="A610" s="1" t="n">
         <v>608</v>
       </c>
-      <c r="B610">
-        <v>172796.11</v>
+      <c r="B610" t="n">
+        <v>100350.34</v>
       </c>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="1">
+      <c r="A611" s="1" t="n">
         <v>609</v>
       </c>
-      <c r="B611">
-        <v>132419</v>
+      <c r="B611" t="n">
+        <v>106186.77</v>
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="1">
+      <c r="A612" s="1" t="n">
         <v>610</v>
       </c>
-      <c r="B612">
-        <v>121393</v>
+      <c r="B612" t="n">
+        <v>106026.74</v>
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="1">
+      <c r="A613" s="1" t="n">
         <v>611</v>
       </c>
-      <c r="B613">
-        <v>124744.19</v>
+      <c r="B613" t="n">
+        <v>100974.6</v>
       </c>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="1">
+      <c r="A614" s="1" t="n">
         <v>612</v>
       </c>
-      <c r="B614">
-        <v>125370.39</v>
+      <c r="B614" t="n">
+        <v>95483.66</v>
       </c>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="1">
+      <c r="A615" s="1" t="n">
         <v>613</v>
       </c>
-      <c r="B615">
-        <v>121418.2</v>
+      <c r="B615" t="n">
+        <v>97925.67999999999</v>
       </c>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="1">
+      <c r="A616" s="1" t="n">
         <v>614</v>
       </c>
-      <c r="B616">
-        <v>124577.99</v>
+      <c r="B616" t="n">
+        <v>96710.37999999999</v>
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="1">
+      <c r="A617" s="1" t="n">
         <v>615</v>
       </c>
-      <c r="B617">
-        <v>117062.89</v>
+      <c r="B617" t="n">
+        <v>100143.78</v>
       </c>
     </row>
     <row r="618" spans="1:2">
-      <c r="A618" s="1">
+      <c r="A618" s="1" t="n">
         <v>616</v>
       </c>
-      <c r="B618">
-        <v>119270.58</v>
+      <c r="B618" t="n">
+        <v>102412.5</v>
       </c>
     </row>
     <row r="619" spans="1:2">
-      <c r="A619" s="1">
+      <c r="A619" s="1" t="n">
         <v>617</v>
       </c>
-      <c r="B619">
-        <v>113245.54</v>
+      <c r="B619" t="n">
+        <v>98513.81999999999</v>
       </c>
     </row>
     <row r="620" spans="1:2">
-      <c r="A620" s="1">
+      <c r="A620" s="1" t="n">
         <v>618</v>
       </c>
-      <c r="B620">
-        <v>107839.11</v>
+      <c r="B620" t="n">
+        <v>95724.66</v>
       </c>
     </row>
     <row r="621" spans="1:2">
-      <c r="A621" s="1">
+      <c r="A621" s="1" t="n">
         <v>619</v>
       </c>
-      <c r="B621">
-        <v>104179.57</v>
+      <c r="B621" t="n">
+        <v>93942.39000000001</v>
       </c>
     </row>
     <row r="622" spans="1:2">
-      <c r="A622" s="1">
+      <c r="A622" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="B622">
-        <v>108103.21</v>
+      <c r="B622" t="n">
+        <v>92660.87</v>
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="1">
+      <c r="A623" s="1" t="n">
         <v>621</v>
       </c>
-      <c r="B623">
-        <v>127858.26</v>
+      <c r="B623" t="n">
+        <v>92217.98000000001</v>
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="1">
+      <c r="A624" s="1" t="n">
         <v>622</v>
       </c>
-      <c r="B624">
-        <v>128518.7</v>
+      <c r="B624" t="n">
+        <v>91992.48000000001</v>
       </c>
     </row>
     <row r="625" spans="1:2">
-      <c r="A625" s="1">
+      <c r="A625" s="1" t="n">
         <v>623</v>
       </c>
-      <c r="B625">
-        <v>136661.8</v>
+      <c r="B625" t="n">
+        <v>91730.06</v>
       </c>
     </row>
     <row r="626" spans="1:2">
-      <c r="A626" s="1">
+      <c r="A626" s="1" t="n">
         <v>624</v>
       </c>
-      <c r="B626">
-        <v>130346.72</v>
+      <c r="B626" t="n">
+        <v>91449.64</v>
       </c>
     </row>
     <row r="627" spans="1:2">
-      <c r="A627" s="1">
+      <c r="A627" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="B627">
-        <v>132597.95</v>
+      <c r="B627" t="n">
+        <v>91887.83</v>
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="1">
+      <c r="A628" s="1" t="n">
         <v>626</v>
       </c>
-      <c r="B628">
-        <v>125351.14</v>
+      <c r="B628" t="n">
+        <v>92110.05</v>
       </c>
     </row>
     <row r="629" spans="1:2">
-      <c r="A629" s="1">
+      <c r="A629" s="1" t="n">
         <v>627</v>
       </c>
-      <c r="B629">
-        <v>127880.69</v>
+      <c r="B629" t="n">
+        <v>93492.14000000001</v>
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="1">
+      <c r="A630" s="1" t="n">
         <v>628</v>
       </c>
-      <c r="B630">
-        <v>137389.21</v>
+      <c r="B630" t="n">
+        <v>94315.22</v>
       </c>
     </row>
     <row r="631" spans="1:2">
-      <c r="A631" s="1">
+      <c r="A631" s="1" t="n">
         <v>629</v>
       </c>
-      <c r="B631">
-        <v>138956.36</v>
+      <c r="B631" t="n">
+        <v>94755.84</v>
       </c>
     </row>
     <row r="632" spans="1:2">
-      <c r="A632" s="1">
+      <c r="A632" s="1" t="n">
         <v>630</v>
       </c>
-      <c r="B632">
-        <v>137881.64</v>
+      <c r="B632" t="n">
+        <v>95748.28</v>
       </c>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="1">
+      <c r="A633" s="1" t="n">
         <v>631</v>
       </c>
-      <c r="B633">
-        <v>135334.05</v>
+      <c r="B633" t="n">
+        <v>111311.83</v>
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="1">
+      <c r="A634" s="1" t="n">
         <v>632</v>
       </c>
-      <c r="B634">
-        <v>135852.08</v>
+      <c r="B634" t="n">
+        <v>124620.4</v>
       </c>
     </row>
     <row r="635" spans="1:2">
-      <c r="A635" s="1">
+      <c r="A635" s="1" t="n">
         <v>633</v>
       </c>
-      <c r="B635">
-        <v>128874.64</v>
+      <c r="B635" t="n">
+        <v>120639.09</v>
       </c>
     </row>
     <row r="636" spans="1:2">
-      <c r="A636" s="1">
+      <c r="A636" s="1" t="n">
         <v>634</v>
       </c>
-      <c r="B636">
-        <v>130696.03</v>
+      <c r="B636" t="n">
+        <v>117022.1</v>
       </c>
     </row>
     <row r="637" spans="1:2">
-      <c r="A637" s="1">
+      <c r="A637" s="1" t="n">
         <v>635</v>
       </c>
-      <c r="B637">
-        <v>137661.56</v>
+      <c r="B637" t="n">
+        <v>117364.13</v>
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="1">
+      <c r="A638" s="1" t="n">
         <v>636</v>
       </c>
-      <c r="B638">
-        <v>171741.09</v>
+      <c r="B638" t="n">
+        <v>121202.85</v>
       </c>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="1">
+      <c r="A639" s="1" t="n">
         <v>637</v>
       </c>
-      <c r="B639">
-        <v>158263.43</v>
+      <c r="B639" t="n">
+        <v>121929.27</v>
       </c>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="1">
+      <c r="A640" s="1" t="n">
         <v>638</v>
       </c>
-      <c r="B640">
-        <v>161803.7</v>
+      <c r="B640" t="n">
+        <v>125505.09</v>
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="1">
+      <c r="A641" s="1" t="n">
         <v>639</v>
       </c>
-      <c r="B641">
-        <v>168242.32</v>
+      <c r="B641" t="n">
+        <v>132247.25</v>
       </c>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="1">
+      <c r="A642" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="B642">
-        <v>174691.93</v>
+      <c r="B642" t="n">
+        <v>133536.98</v>
       </c>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="1">
+      <c r="A643" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="B643">
-        <v>172582.98</v>
+      <c r="B643" t="n">
+        <v>129671.53</v>
       </c>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="1">
+      <c r="A644" s="1" t="n">
         <v>642</v>
       </c>
-      <c r="B644">
-        <v>169150.49</v>
+      <c r="B644" t="n">
+        <v>128716.71</v>
       </c>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="1">
+      <c r="A645" s="1" t="n">
         <v>643</v>
       </c>
-      <c r="B645">
-        <v>173174.69</v>
+      <c r="B645" t="n">
+        <v>134130.25</v>
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="1">
+      <c r="A646" s="1" t="n">
         <v>644</v>
       </c>
-      <c r="B646">
-        <v>174478.02</v>
+      <c r="B646" t="n">
+        <v>131365.76</v>
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="1">
+      <c r="A647" s="1" t="n">
         <v>645</v>
       </c>
-      <c r="B647">
-        <v>175216.01</v>
+      <c r="B647" t="n">
+        <v>128970.89</v>
       </c>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="1">
+      <c r="A648" s="1" t="n">
         <v>646</v>
       </c>
-      <c r="B648">
-        <v>169796.68</v>
+      <c r="B648" t="n">
+        <v>127284.79</v>
       </c>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="1">
+      <c r="A649" s="1" t="n">
         <v>647</v>
       </c>
-      <c r="B649">
-        <v>172551.19</v>
+      <c r="B649" t="n">
+        <v>130995.93</v>
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="1">
+      <c r="A650" s="1" t="n">
         <v>648</v>
       </c>
-      <c r="B650">
-        <v>177343.65</v>
+      <c r="B650" t="n">
+        <v>132136.04</v>
       </c>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="1">
+      <c r="A651" s="1" t="n">
         <v>649</v>
       </c>
-      <c r="B651">
-        <v>168285.95</v>
+      <c r="B651" t="n">
+        <v>125210.56</v>
       </c>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="1">
+      <c r="A652" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="B652">
-        <v>164972.76</v>
+      <c r="B652" t="n">
+        <v>124739.12</v>
       </c>
     </row>
     <row r="653" spans="1:2">
-      <c r="A653" s="1">
+      <c r="A653" s="1" t="n">
         <v>651</v>
       </c>
-      <c r="B653">
-        <v>167180.76</v>
+      <c r="B653" t="n">
+        <v>124243.79</v>
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="1">
+      <c r="A654" s="1" t="n">
         <v>652</v>
       </c>
-      <c r="B654">
-        <v>175698.15</v>
+      <c r="B654" t="n">
+        <v>122482.75</v>
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="1">
+      <c r="A655" s="1" t="n">
         <v>653</v>
       </c>
-      <c r="B655">
-        <v>178878.18</v>
+      <c r="B655" t="n">
+        <v>121028.27</v>
       </c>
     </row>
     <row r="656" spans="1:2">
-      <c r="A656" s="1">
+      <c r="A656" s="1" t="n">
         <v>654</v>
       </c>
-      <c r="B656">
-        <v>176205.55</v>
+      <c r="B656" t="n">
+        <v>120449.27</v>
       </c>
     </row>
     <row r="657" spans="1:2">
-      <c r="A657" s="1">
+      <c r="A657" s="1" t="n">
         <v>655</v>
       </c>
-      <c r="B657">
-        <v>175139.58</v>
+      <c r="B657" t="n">
+        <v>123412.23</v>
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="1">
+      <c r="A658" s="1" t="n">
         <v>656</v>
       </c>
-      <c r="B658">
-        <v>187503.4</v>
+      <c r="B658" t="n">
+        <v>123442.07</v>
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" s="1">
+      <c r="A659" s="1" t="n">
         <v>657</v>
       </c>
-      <c r="B659">
-        <v>189826.14</v>
+      <c r="B659" t="n">
+        <v>127826.8</v>
       </c>
     </row>
     <row r="660" spans="1:2">
-      <c r="A660" s="1">
+      <c r="A660" s="1" t="n">
         <v>658</v>
       </c>
-      <c r="B660">
-        <v>180780.22</v>
+      <c r="B660" t="n">
+        <v>128669.29</v>
       </c>
     </row>
     <row r="661" spans="1:2">
-      <c r="A661" s="1">
+      <c r="A661" s="1" t="n">
         <v>659</v>
       </c>
-      <c r="B661">
-        <v>187898.12</v>
+      <c r="B661" t="n">
+        <v>130508.93</v>
       </c>
     </row>
     <row r="662" spans="1:2">
-      <c r="A662" s="1">
+      <c r="A662" s="1" t="n">
         <v>660</v>
       </c>
-      <c r="B662">
-        <v>188633.49</v>
+      <c r="B662" t="n">
+        <v>130039.63</v>
       </c>
     </row>
     <row r="663" spans="1:2">
-      <c r="A663" s="1">
+      <c r="A663" s="1" t="n">
         <v>661</v>
       </c>
-      <c r="B663">
-        <v>186262.44</v>
+      <c r="B663" t="n">
+        <v>131555.42</v>
       </c>
     </row>
     <row r="664" spans="1:2">
-      <c r="A664" s="1">
+      <c r="A664" s="1" t="n">
         <v>662</v>
       </c>
-      <c r="B664">
-        <v>188770.84</v>
+      <c r="B664" t="n">
+        <v>132021.29</v>
       </c>
     </row>
     <row r="665" spans="1:2">
-      <c r="A665" s="1">
+      <c r="A665" s="1" t="n">
         <v>663</v>
       </c>
-      <c r="B665">
-        <v>190473.37</v>
+      <c r="B665" t="n">
+        <v>132493.19</v>
       </c>
     </row>
     <row r="666" spans="1:2">
-      <c r="A666" s="1">
+      <c r="A666" s="1" t="n">
         <v>664</v>
       </c>
-      <c r="B666">
-        <v>196345.44</v>
+      <c r="B666" t="n">
+        <v>129726.98</v>
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="1">
+      <c r="A667" s="1" t="n">
         <v>665</v>
       </c>
-      <c r="B667">
-        <v>191389.2</v>
+      <c r="B667" t="n">
+        <v>128233.38</v>
       </c>
     </row>
     <row r="668" spans="1:2">
-      <c r="A668" s="1">
+      <c r="A668" s="1" t="n">
         <v>666</v>
       </c>
-      <c r="B668">
-        <v>189560.86</v>
+      <c r="B668" t="n">
+        <v>125468</v>
       </c>
     </row>
     <row r="669" spans="1:2">
-      <c r="A669" s="1">
+      <c r="A669" s="1" t="n">
         <v>667</v>
       </c>
-      <c r="B669">
-        <v>188596.62</v>
+      <c r="B669" t="n">
+        <v>124504.97</v>
       </c>
     </row>
     <row r="670" spans="1:2">
-      <c r="A670" s="1">
+      <c r="A670" s="1" t="n">
         <v>668</v>
       </c>
-      <c r="B670">
-        <v>194554.58</v>
+      <c r="B670" t="n">
+        <v>125334.29</v>
       </c>
     </row>
     <row r="671" spans="1:2">
-      <c r="A671" s="1">
+      <c r="A671" s="1" t="n">
         <v>669</v>
       </c>
-      <c r="B671">
-        <v>187033.59</v>
+      <c r="B671" t="n">
+        <v>122060.59</v>
       </c>
     </row>
     <row r="672" spans="1:2">
-      <c r="A672" s="1">
+      <c r="A672" s="1" t="n">
         <v>670</v>
       </c>
-      <c r="B672">
-        <v>166945.89</v>
+      <c r="B672" t="n">
+        <v>119192.85</v>
       </c>
     </row>
     <row r="673" spans="1:2">
-      <c r="A673" s="1">
+      <c r="A673" s="1" t="n">
         <v>671</v>
       </c>
-      <c r="B673">
-        <v>166101.43</v>
+      <c r="B673" t="n">
+        <v>117283.82</v>
       </c>
     </row>
     <row r="674" spans="1:2">
-      <c r="A674" s="1">
+      <c r="A674" s="1" t="n">
         <v>672</v>
       </c>
-      <c r="B674">
-        <v>174076.35</v>
+      <c r="B674" t="n">
+        <v>118981.08</v>
       </c>
     </row>
     <row r="675" spans="1:2">
-      <c r="A675" s="1">
+      <c r="A675" s="1" t="n">
         <v>673</v>
       </c>
-      <c r="B675">
-        <v>179448.76</v>
+      <c r="B675" t="n">
+        <v>120511.18</v>
       </c>
     </row>
     <row r="676" spans="1:2">
-      <c r="A676" s="1">
+      <c r="A676" s="1" t="n">
         <v>674</v>
       </c>
-      <c r="B676">
-        <v>183820.74</v>
+      <c r="B676" t="n">
+        <v>120546.75</v>
       </c>
     </row>
     <row r="677" spans="1:2">
-      <c r="A677" s="1">
+      <c r="A677" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="B677">
-        <v>182420.8</v>
+      <c r="B677" t="n">
+        <v>120103.72</v>
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="1">
+      <c r="A678" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="B678">
-        <v>181386.33</v>
+      <c r="B678" t="n">
+        <v>124858.32</v>
       </c>
     </row>
     <row r="679" spans="1:2">
-      <c r="A679" s="1">
+      <c r="A679" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="B679">
-        <v>180842.83</v>
+      <c r="B679" t="n">
+        <v>133344.41</v>
       </c>
     </row>
     <row r="680" spans="1:2">
-      <c r="A680" s="1">
+      <c r="A680" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="B680">
-        <v>179182.16</v>
+      <c r="B680" t="n">
+        <v>134471.73</v>
       </c>
     </row>
     <row r="681" spans="1:2">
-      <c r="A681" s="1">
+      <c r="A681" s="1" t="n">
         <v>679</v>
       </c>
-      <c r="B681">
-        <v>176278.8</v>
+      <c r="B681" t="n">
+        <v>134434.5</v>
       </c>
     </row>
     <row r="682" spans="1:2">
-      <c r="A682" s="1">
+      <c r="A682" s="1" t="n">
         <v>680</v>
       </c>
-      <c r="B682">
-        <v>177889.33</v>
+      <c r="B682" t="n">
+        <v>134803.43</v>
       </c>
     </row>
     <row r="683" spans="1:2">
-      <c r="A683" s="1">
+      <c r="A683" s="1" t="n">
         <v>681</v>
       </c>
-      <c r="B683">
-        <v>174378.46</v>
+      <c r="B683" t="n">
+        <v>134048.59</v>
       </c>
     </row>
     <row r="684" spans="1:2">
-      <c r="A684" s="1">
+      <c r="A684" s="1" t="n">
         <v>682</v>
       </c>
-      <c r="B684">
-        <v>174674.31</v>
+      <c r="B684" t="n">
+        <v>133790.92</v>
       </c>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="1">
+      <c r="A685" s="1" t="n">
         <v>683</v>
       </c>
-      <c r="B685">
-        <v>174298.07</v>
+      <c r="B685" t="n">
+        <v>129587.05</v>
       </c>
     </row>
     <row r="686" spans="1:2">
-      <c r="A686" s="1">
+      <c r="A686" s="1" t="n">
         <v>684</v>
       </c>
-      <c r="B686">
-        <v>173718.51</v>
+      <c r="B686" t="n">
+        <v>130658.11</v>
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="1">
+      <c r="A687" s="1" t="n">
         <v>685</v>
       </c>
-      <c r="B687">
-        <v>174848.36</v>
+      <c r="B687" t="n">
+        <v>133777.15</v>
       </c>
     </row>
     <row r="688" spans="1:2">
-      <c r="A688" s="1">
+      <c r="A688" s="1" t="n">
         <v>686</v>
       </c>
-      <c r="B688">
-        <v>178867.87</v>
+      <c r="B688" t="n">
+        <v>134549.84</v>
       </c>
     </row>
     <row r="689" spans="1:2">
-      <c r="A689" s="1">
+      <c r="A689" s="1" t="n">
         <v>687</v>
       </c>
-      <c r="B689">
-        <v>178488.82</v>
+      <c r="B689" t="n">
+        <v>133201.23</v>
       </c>
     </row>
     <row r="690" spans="1:2">
-      <c r="A690" s="1">
+      <c r="A690" s="1" t="n">
         <v>688</v>
       </c>
-      <c r="B690">
-        <v>177116.83</v>
+      <c r="B690" t="n">
+        <v>132460.1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
-      <c r="A691" s="1">
+      <c r="A691" s="1" t="n">
         <v>689</v>
       </c>
-      <c r="B691">
-        <v>175634.73</v>
+      <c r="B691" t="n">
+        <v>132976.25</v>
       </c>
     </row>
     <row r="692" spans="1:2">
-      <c r="A692" s="1">
+      <c r="A692" s="1" t="n">
         <v>690</v>
       </c>
-      <c r="B692">
-        <v>176298.52</v>
+      <c r="B692" t="n">
+        <v>131609.32</v>
       </c>
     </row>
     <row r="693" spans="1:2">
-      <c r="A693" s="1">
+      <c r="A693" s="1" t="n">
         <v>691</v>
       </c>
-      <c r="B693">
-        <v>173788.23</v>
+      <c r="B693" t="n">
+        <v>126340.02</v>
       </c>
     </row>
     <row r="694" spans="1:2">
-      <c r="A694" s="1">
+      <c r="A694" s="1" t="n">
         <v>692</v>
       </c>
-      <c r="B694">
-        <v>174653.13</v>
+      <c r="B694" t="n">
+        <v>127834.52</v>
       </c>
     </row>
     <row r="695" spans="1:2">
-      <c r="A695" s="1">
+      <c r="A695" s="1" t="n">
         <v>693</v>
       </c>
-      <c r="B695">
-        <v>178903.88</v>
+      <c r="B695" t="n">
+        <v>139529.49</v>
       </c>
     </row>
     <row r="696" spans="1:2">
-      <c r="A696" s="1">
+      <c r="A696" s="1" t="n">
         <v>694</v>
       </c>
-      <c r="B696">
-        <v>176136.5</v>
+      <c r="B696" t="n">
+        <v>144488.61</v>
       </c>
     </row>
     <row r="697" spans="1:2">
-      <c r="A697" s="1">
+      <c r="A697" s="1" t="n">
         <v>695</v>
       </c>
-      <c r="B697">
-        <v>177336.39</v>
+      <c r="B697" t="n">
+        <v>144780.9</v>
       </c>
     </row>
     <row r="698" spans="1:2">
-      <c r="A698" s="1">
+      <c r="A698" s="1" t="n">
         <v>696</v>
       </c>
-      <c r="B698">
-        <v>175518.48</v>
+      <c r="B698" t="n">
+        <v>137672.82</v>
       </c>
     </row>
     <row r="699" spans="1:2">
-      <c r="A699" s="1">
+      <c r="A699" s="1" t="n">
         <v>697</v>
       </c>
-      <c r="B699">
-        <v>170179.29</v>
+      <c r="B699" t="n">
+        <v>137977.78</v>
       </c>
     </row>
     <row r="700" spans="1:2">
-      <c r="A700" s="1">
+      <c r="A700" s="1" t="n">
         <v>698</v>
       </c>
-      <c r="B700">
-        <v>170381.36</v>
+      <c r="B700" t="n">
+        <v>135983.22</v>
       </c>
     </row>
     <row r="701" spans="1:2">
-      <c r="A701" s="1">
+      <c r="A701" s="1" t="n">
         <v>699</v>
       </c>
-      <c r="B701">
-        <v>176289.25</v>
+      <c r="B701" t="n">
+        <v>142213.82</v>
       </c>
     </row>
     <row r="702" spans="1:2">
-      <c r="A702" s="1">
+      <c r="A702" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="B702">
-        <v>197579.26</v>
+      <c r="B702" t="n">
+        <v>151280.03</v>
       </c>
     </row>
     <row r="703" spans="1:2">
-      <c r="A703" s="1">
+      <c r="A703" s="1" t="n">
         <v>701</v>
       </c>
-      <c r="B703">
-        <v>206622.66</v>
+      <c r="B703" t="n">
+        <v>147785.13</v>
       </c>
     </row>
     <row r="704" spans="1:2">
-      <c r="A704" s="1">
+      <c r="A704" s="1" t="n">
         <v>702</v>
       </c>
-      <c r="B704">
-        <v>215436.27</v>
+      <c r="B704" t="n">
+        <v>153452.33</v>
       </c>
     </row>
     <row r="705" spans="1:2">
-      <c r="A705" s="1">
+      <c r="A705" s="1" t="n">
         <v>703</v>
       </c>
-      <c r="B705">
-        <v>216505.86</v>
+      <c r="B705" t="n">
+        <v>150876.03</v>
       </c>
     </row>
     <row r="706" spans="1:2">
-      <c r="A706" s="1">
+      <c r="A706" s="1" t="n">
         <v>704</v>
       </c>
-      <c r="B706">
-        <v>217194.42</v>
+      <c r="B706" t="n">
+        <v>154688.58</v>
       </c>
     </row>
     <row r="707" spans="1:2">
-      <c r="A707" s="1">
+      <c r="A707" s="1" t="n">
         <v>705</v>
       </c>
-      <c r="B707">
-        <v>231231.24</v>
+      <c r="B707" t="n">
+        <v>155933.48</v>
       </c>
     </row>
     <row r="708" spans="1:2">
-      <c r="A708" s="1">
+      <c r="A708" s="1" t="n">
         <v>706</v>
       </c>
-      <c r="B708">
-        <v>230918.25</v>
+      <c r="B708" t="n">
+        <v>178534.23</v>
       </c>
     </row>
     <row r="709" spans="1:2">
-      <c r="A709" s="1">
+      <c r="A709" s="1" t="n">
         <v>707</v>
       </c>
-      <c r="B709">
-        <v>229096.3</v>
+      <c r="B709" t="n">
+        <v>182191.53</v>
       </c>
     </row>
     <row r="710" spans="1:2">
-      <c r="A710" s="1">
+      <c r="A710" s="1" t="n">
         <v>708</v>
       </c>
-      <c r="B710">
-        <v>243386.6</v>
+      <c r="B710" t="n">
+        <v>174199.33</v>
       </c>
     </row>
     <row r="711" spans="1:2">
-      <c r="A711" s="1">
+      <c r="A711" s="1" t="n">
         <v>709</v>
       </c>
-      <c r="B711">
-        <v>249559.7</v>
+      <c r="B711" t="n">
+        <v>168034.98</v>
       </c>
     </row>
     <row r="712" spans="1:2">
-      <c r="A712" s="1">
+      <c r="A712" s="1" t="n">
         <v>710</v>
       </c>
-      <c r="B712">
-        <v>237110.7</v>
+      <c r="B712" t="n">
+        <v>169658.28</v>
       </c>
     </row>
     <row r="713" spans="1:2">
-      <c r="A713" s="1">
+      <c r="A713" s="1" t="n">
         <v>711</v>
       </c>
-      <c r="B713">
-        <v>251200.01</v>
+      <c r="B713" t="n">
+        <v>165093.78</v>
       </c>
     </row>
     <row r="714" spans="1:2">
-      <c r="A714" s="1">
+      <c r="A714" s="1" t="n">
         <v>712</v>
       </c>
-      <c r="B714">
-        <v>238697.4</v>
+      <c r="B714" t="n">
+        <v>159707.18</v>
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="1">
+      <c r="A715" s="1" t="n">
         <v>713</v>
       </c>
-      <c r="B715">
-        <v>247398.3</v>
+      <c r="B715" t="n">
+        <v>158866.18</v>
       </c>
     </row>
     <row r="716" spans="1:2">
-      <c r="A716" s="1">
+      <c r="A716" s="1" t="n">
         <v>714</v>
       </c>
-      <c r="B716">
-        <v>246487.8</v>
+      <c r="B716" t="n">
+        <v>158916.08</v>
       </c>
     </row>
     <row r="717" spans="1:2">
-      <c r="A717" s="1">
+      <c r="A717" s="1" t="n">
         <v>715</v>
       </c>
-      <c r="B717">
-        <v>244876.1</v>
+      <c r="B717" t="n">
+        <v>163437.73</v>
       </c>
     </row>
     <row r="718" spans="1:2">
-      <c r="A718" s="1">
+      <c r="A718" s="1" t="n">
         <v>716</v>
       </c>
-      <c r="B718">
-        <v>271123.2</v>
+      <c r="B718" t="n">
+        <v>162594.89</v>
       </c>
     </row>
     <row r="719" spans="1:2">
-      <c r="A719" s="1">
+      <c r="A719" s="1" t="n">
         <v>717</v>
       </c>
-      <c r="B719">
-        <v>277297.3</v>
+      <c r="B719" t="n">
+        <v>164064.59</v>
       </c>
     </row>
     <row r="720" spans="1:2">
-      <c r="A720" s="1">
+      <c r="A720" s="1" t="n">
         <v>718</v>
       </c>
-      <c r="B720">
-        <v>280392.4</v>
+      <c r="B720" t="n">
+        <v>158738.89</v>
       </c>
     </row>
     <row r="721" spans="1:2">
-      <c r="A721" s="1">
+      <c r="A721" s="1" t="n">
         <v>719</v>
       </c>
-      <c r="B721">
-        <v>268331.7</v>
+      <c r="B721" t="n">
+        <v>163627.79</v>
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="1">
+      <c r="A722" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="B722">
-        <v>272710.6</v>
+      <c r="B722" t="n">
+        <v>159453.64</v>
       </c>
     </row>
     <row r="723" spans="1:2">
-      <c r="A723" s="1">
+      <c r="A723" s="1" t="n">
         <v>721</v>
       </c>
-      <c r="B723">
-        <v>257754.6</v>
+      <c r="B723" t="n">
+        <v>160928.14</v>
       </c>
     </row>
     <row r="724" spans="1:2">
-      <c r="A724" s="1">
+      <c r="A724" s="1" t="n">
         <v>722</v>
       </c>
-      <c r="B724">
-        <v>255713.5</v>
+      <c r="B724" t="n">
+        <v>160439.74</v>
       </c>
     </row>
     <row r="725" spans="1:2">
-      <c r="A725" s="1">
+      <c r="A725" s="1" t="n">
         <v>723</v>
       </c>
-      <c r="B725">
-        <v>252227.8</v>
+      <c r="B725" t="n">
+        <v>157717.14</v>
       </c>
     </row>
     <row r="726" spans="1:2">
-      <c r="A726" s="1">
+      <c r="A726" s="1" t="n">
         <v>724</v>
       </c>
-      <c r="B726">
-        <v>247735.6</v>
+      <c r="B726" t="n">
+        <v>159693.08</v>
       </c>
     </row>
     <row r="727" spans="1:2">
-      <c r="A727" s="1">
+      <c r="A727" s="1" t="n">
         <v>725</v>
       </c>
-      <c r="B727">
-        <v>246754.9</v>
+      <c r="B727" t="n">
+        <v>160193.71</v>
       </c>
     </row>
     <row r="728" spans="1:2">
-      <c r="A728" s="1">
+      <c r="A728" s="1" t="n">
         <v>726</v>
       </c>
-      <c r="B728">
-        <v>238756.8</v>
+      <c r="B728" t="n">
+        <v>161902.64</v>
       </c>
     </row>
     <row r="729" spans="1:2">
-      <c r="A729" s="1">
+      <c r="A729" s="1" t="n">
         <v>727</v>
       </c>
-      <c r="B729">
-        <v>236890.5</v>
+      <c r="B729" t="n">
+        <v>162044.18</v>
       </c>
     </row>
     <row r="730" spans="1:2">
-      <c r="A730" s="1">
+      <c r="A730" s="1" t="n">
         <v>728</v>
       </c>
-      <c r="B730">
-        <v>232202.4</v>
+      <c r="B730" t="n">
+        <v>169231.38</v>
       </c>
     </row>
     <row r="731" spans="1:2">
-      <c r="A731" s="1">
+      <c r="A731" s="1" t="n">
         <v>729</v>
       </c>
-      <c r="B731">
-        <v>231376.9</v>
+      <c r="B731" t="n">
+        <v>172119.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>